--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CONTROL ESCOLAR\CALIFICACIONES\ACTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5892CB5B-FF63-47FE-9EF1-E15AAF2DAD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10620" windowHeight="4245"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="10" r:id="rId1"/>
@@ -24,7 +25,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Hoja2!$A$1:$L$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Hoja3!$A$1:$L$65</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,19 +109,19 @@
 FINAL</t>
   </si>
   <si>
-    <t>ene-abr2020</t>
-  </si>
-  <si>
     <t>Tetra/Sem:</t>
   </si>
   <si>
     <t>NC=No Cursada</t>
   </si>
+  <si>
+    <t>may-ago 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -802,23 +813,166 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -863,39 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -916,152 +1037,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1110,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A05E8D5-7A2E-42F5-8ACD-9BF956AC4CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1184,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33C3E21-2A3D-41A7-9E47-E8B4CCC7AFA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1233,7 @@
         <xdr:cNvPr id="4" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A05E8D5-7A2E-42F5-8ACD-9BF956AC4CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1307,7 @@
         <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33C3E21-2A3D-41A7-9E47-E8B4CCC7AFA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1356,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A05E8D5-7A2E-42F5-8ACD-9BF956AC4CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1430,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33C3E21-2A3D-41A7-9E47-E8B4CCC7AFA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,54 +1745,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
       <c r="I2" s="22"/>
@@ -1789,23 +1800,23 @@
       <c r="K2" s="22"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1818,63 +1829,63 @@
       <c r="J4" s="24"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="97"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="48"/>
       <c r="J6" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="47"/>
       <c r="J7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-    </row>
-    <row r="8" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+    </row>
+    <row r="8" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1887,45 +1898,45 @@
       <c r="J8" s="26"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81" t="s">
+      <c r="I9" s="120"/>
+      <c r="J9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="K9" s="120"/>
+    </row>
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="49" t="s">
         <v>7</v>
       </c>
@@ -1939,1282 +1950,1282 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64">
         <v>1</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="105"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="60" t="str">
         <f>IF(H11="","",IF(H11=0,"cero",IF(H11=5,"cinco",IF(H11=6,"seis",IF(H11=7,"siete",IF(H11=8,"ocho",IF(H11=9,"nueve",IF(H11=10,"diez",IF(H11="NC","NC")))))))))</f>
         <v/>
       </c>
-      <c r="J11" s="105"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="60" t="str">
         <f>IF(J11="","",IF(J11=0,"cero",IF(J11=5,"cinco",IF(J11=6,"seis",IF(J11=7,"siete",IF(J11=8,"ocho",IF(J11=9,"nueve",IF(J11=10,"diez",IF(J11="NC","NC")))))))))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70">
         <v>2</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="111"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="60" t="str">
         <f t="shared" ref="I12:I70" si="0">IF(H12="","",IF(H12=0,"cero",IF(H12=5,"cinco",IF(H12=6,"seis",IF(H12=7,"siete",IF(H12=8,"ocho",IF(H12=9,"nueve",IF(H12=10,"diez",IF(H12="NC","NC")))))))))</f>
         <v/>
       </c>
-      <c r="J12" s="111"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="60" t="str">
         <f t="shared" ref="K12:K70" si="1">IF(J12="","",IF(J12=0,"cero",IF(J12=5,"cinco",IF(J12=6,"seis",IF(J12=7,"siete",IF(J12=8,"ocho",IF(J12=9,"nueve",IF(J12=10,"diez",IF(J12="NC","NC")))))))))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70">
         <v>3</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="111"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="111"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="70">
         <v>4</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="111"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="111"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="70">
         <v>5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="111"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="111"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70">
         <v>6</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="111"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="111"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="70">
         <v>7</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="111"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="111"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="70">
         <v>8</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="111"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="111"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="70">
         <v>9</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="111"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="111"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="70">
         <v>10</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="111"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="111"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="70">
         <v>11</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="111"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="111"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="70">
         <v>12</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="111"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="111"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="70">
         <v>13</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="111"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="73"/>
       <c r="I23" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="111"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="70">
         <v>14</v>
       </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="117"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="111"/>
+      <c r="J24" s="73"/>
       <c r="K24" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="70">
         <v>15</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="117"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="111"/>
+      <c r="J25" s="73"/>
       <c r="K25" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="70">
         <v>16</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="119"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="111"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="70">
         <v>17</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="117"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="111"/>
+      <c r="J27" s="73"/>
       <c r="K27" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="70">
         <v>18</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="119"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="111"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108">
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="70">
         <v>19</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="119"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="111"/>
+      <c r="J29" s="73"/>
       <c r="K29" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="70">
         <v>20</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="119"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="111"/>
+      <c r="J30" s="73"/>
       <c r="K30" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108">
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="70">
         <v>21</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="119"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="83"/>
       <c r="K31" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108">
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="70">
         <v>22</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="117"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="111"/>
+      <c r="J32" s="73"/>
       <c r="K32" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108">
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="70">
         <v>23</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="117"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="79"/>
       <c r="I33" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="111"/>
+      <c r="J33" s="73"/>
       <c r="K33" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108">
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="70">
         <v>24</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="119"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="122"/>
+      <c r="J34" s="84"/>
       <c r="K34" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108">
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="70">
         <v>25</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="117"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="111"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108">
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="70">
         <v>26</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="119"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="122"/>
+      <c r="J36" s="84"/>
       <c r="K36" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108">
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="70">
         <v>27</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="119"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="81"/>
       <c r="I37" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J37" s="122"/>
+      <c r="J37" s="84"/>
       <c r="K37" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108">
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="70">
         <v>28</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="119"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="81"/>
       <c r="I38" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J38" s="122"/>
+      <c r="J38" s="84"/>
       <c r="K38" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="70">
         <v>29</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="117"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J39" s="111"/>
+      <c r="J39" s="73"/>
       <c r="K39" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108">
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="70">
         <v>30</v>
       </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="117"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="79"/>
       <c r="I40" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J40" s="111"/>
+      <c r="J40" s="73"/>
       <c r="K40" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108">
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="70">
         <v>31</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="117"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J41" s="111"/>
+      <c r="J41" s="73"/>
       <c r="K41" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108">
+    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="70">
         <v>32</v>
       </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="119"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="122"/>
+      <c r="J42" s="84"/>
       <c r="K42" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="108">
+    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="70">
         <v>33</v>
       </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="117"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="111"/>
+      <c r="J43" s="73"/>
       <c r="K43" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108">
+    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="70">
         <v>34</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="119"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="81"/>
       <c r="I44" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="122"/>
+      <c r="J44" s="84"/>
       <c r="K44" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108">
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="70">
         <v>35</v>
       </c>
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="117"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="79"/>
       <c r="I45" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J45" s="111"/>
+      <c r="J45" s="73"/>
       <c r="K45" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="108">
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="70">
         <v>36</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="119"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="81"/>
       <c r="I46" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J46" s="111"/>
+      <c r="J46" s="73"/>
       <c r="K46" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="108">
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="70">
         <v>37</v>
       </c>
-      <c r="B47" s="123"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="119"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="81"/>
       <c r="I47" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J47" s="111"/>
+      <c r="J47" s="73"/>
       <c r="K47" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108">
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="70">
         <v>38</v>
       </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="119"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="81"/>
       <c r="I48" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J48" s="111"/>
+      <c r="J48" s="73"/>
       <c r="K48" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="70">
         <v>39</v>
       </c>
-      <c r="B49" s="123"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="119"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="81"/>
       <c r="I49" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J49" s="111"/>
+      <c r="J49" s="73"/>
       <c r="K49" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="108">
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="70">
         <f>A49+1</f>
         <v>40</v>
       </c>
-      <c r="B50" s="123"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="119"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="81"/>
       <c r="I50" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J50" s="111"/>
+      <c r="J50" s="73"/>
       <c r="K50" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108">
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="70">
         <f t="shared" ref="A51:A59" si="2">A50+1</f>
         <v>41</v>
       </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="119"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="81"/>
       <c r="I51" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J51" s="111"/>
+      <c r="J51" s="73"/>
       <c r="K51" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="108">
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="70">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="119"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J52" s="111"/>
+      <c r="J52" s="73"/>
       <c r="K52" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="108">
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="70">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="81"/>
       <c r="I53" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J53" s="111"/>
+      <c r="J53" s="73"/>
       <c r="K53" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="108">
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="70">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="119"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="81"/>
       <c r="I54" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J54" s="111"/>
+      <c r="J54" s="73"/>
       <c r="K54" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108">
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="70">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B55" s="123"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="119"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="81"/>
       <c r="I55" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J55" s="111"/>
+      <c r="J55" s="73"/>
       <c r="K55" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="108">
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="70">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="119"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="81"/>
       <c r="I56" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J56" s="111"/>
+      <c r="J56" s="73"/>
       <c r="K56" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="70">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B57" s="123"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="119"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="81"/>
       <c r="I57" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J57" s="111"/>
+      <c r="J57" s="73"/>
       <c r="K57" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108">
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="70">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B58" s="123"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="119"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="81"/>
       <c r="I58" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J58" s="111"/>
+      <c r="J58" s="73"/>
       <c r="K58" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108">
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="70">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="119"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="81"/>
       <c r="I59" s="60" t="str">
         <f t="shared" ref="I59:I69" si="3">IF(H59="","",IF(H59=0,"cero",IF(H59=5,"cinco",IF(H59=6,"seis",IF(H59=7,"siete",IF(H59=8,"ocho",IF(H59=9,"nueve",IF(H59=10,"diez",IF(H59="NC","NC")))))))))</f>
         <v/>
       </c>
-      <c r="J59" s="111"/>
+      <c r="J59" s="73"/>
       <c r="K59" s="60" t="str">
         <f t="shared" ref="K59:K69" si="4">IF(J59="","",IF(J59=0,"cero",IF(J59=5,"cinco",IF(J59=6,"seis",IF(J59=7,"siete",IF(J59=8,"ocho",IF(J59=9,"nueve",IF(J59=10,"diez",IF(J59="NC","NC")))))))))</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="124">
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="86">
         <v>50</v>
       </c>
-      <c r="B60" s="123"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="119"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="81"/>
       <c r="I60" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J60" s="111"/>
+      <c r="J60" s="73"/>
       <c r="K60" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="124">
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="86">
         <v>51</v>
       </c>
-      <c r="B61" s="123"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="119"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="81"/>
       <c r="I61" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J61" s="111"/>
+      <c r="J61" s="73"/>
       <c r="K61" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="124">
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="86">
         <v>52</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="119"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="81"/>
       <c r="I62" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J62" s="111"/>
+      <c r="J62" s="73"/>
       <c r="K62" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="124">
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="86">
         <v>53</v>
       </c>
-      <c r="B63" s="123"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="119"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="81"/>
       <c r="I63" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J63" s="111"/>
+      <c r="J63" s="73"/>
       <c r="K63" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="124">
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="86">
         <v>54</v>
       </c>
-      <c r="B64" s="123"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="119"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="81"/>
       <c r="I64" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J64" s="111"/>
+      <c r="J64" s="73"/>
       <c r="K64" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="124">
+    <row r="65" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="86">
         <v>55</v>
       </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="119"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="81"/>
       <c r="I65" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J65" s="111"/>
+      <c r="J65" s="73"/>
       <c r="K65" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="124">
+    <row r="66" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="86">
         <v>56</v>
       </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="119"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="81"/>
       <c r="I66" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J66" s="111"/>
+      <c r="J66" s="73"/>
       <c r="K66" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="124">
+    <row r="67" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="86">
         <v>57</v>
       </c>
-      <c r="B67" s="123"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="119"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="81"/>
       <c r="I67" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J67" s="111"/>
+      <c r="J67" s="73"/>
       <c r="K67" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="124">
+    <row r="68" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="86">
         <v>58</v>
       </c>
-      <c r="B68" s="123"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="119"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="81"/>
       <c r="I68" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J68" s="111"/>
+      <c r="J68" s="73"/>
       <c r="K68" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="124">
+    <row r="69" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="86">
         <v>59</v>
       </c>
-      <c r="B69" s="123"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="119"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="81"/>
       <c r="I69" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J69" s="111"/>
+      <c r="J69" s="73"/>
       <c r="K69" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="125">
+    <row r="70" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="87">
         <v>60</v>
       </c>
-      <c r="B70" s="126"/>
-      <c r="C70" s="127"/>
-      <c r="D70" s="128"/>
-      <c r="E70" s="129"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="131"/>
-      <c r="H70" s="129"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="91"/>
       <c r="I70" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J70" s="132"/>
+      <c r="J70" s="94"/>
       <c r="K70" s="62" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="133" t="s">
+    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="133"/>
-      <c r="C71" s="133"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="56"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
@@ -3225,7 +3236,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="36" t="s">
         <v>16</v>
       </c>
@@ -3235,43 +3246,36 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-    </row>
-    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="95"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+    </row>
+    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
+        <v>23</v>
+      </c>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
-      <c r="H74" s="134" t="s">
+      <c r="H74" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="aySuw4YRe4rzz5kY/TgjpFX/70MiXQTrjzvvmRxVGqM044Cswl1TrK9gDkf+2REIsKgTNhRFCyoKwGuw+Ak/bw==" saltValue="Z5ZjhQ6xosPg4PIqMomKOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="21">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="H74:K74"/>
@@ -3286,6 +3290,13 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -3294,57 +3305,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="96" t="str">
+      <c r="D2" s="125" t="str">
         <f>IF(Hoja1!D2="","",Hoja1!D2)</f>
         <v/>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
       <c r="I2" s="22"/>
@@ -3352,23 +3363,23 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -3381,79 +3392,79 @@
       <c r="J4" s="24"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="92" t="str">
+      <c r="C5" s="121" t="str">
         <f>IF(Hoja1!C5="","",Hoja1!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
       <c r="J5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="94" t="str">
+      <c r="K5" s="123" t="str">
         <f>IF(Hoja1!K5="","",Hoja1!K5)</f>
-        <v>ene-abr2020</v>
-      </c>
-      <c r="L5" s="94"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>may-ago 2020</v>
+      </c>
+      <c r="L5" s="123"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="93" t="str">
+      <c r="C6" s="122" t="str">
         <f>IF(Hoja1!C6="","",Hoja1!C6)</f>
         <v/>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="48"/>
       <c r="J6" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="95" t="str">
+        <v>22</v>
+      </c>
+      <c r="K6" s="124" t="str">
         <f>IF(Hoja1!K6="","",Hoja1!K6)</f>
         <v/>
       </c>
-      <c r="L6" s="95"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="91" t="str">
+      <c r="C7" s="128" t="str">
         <f>IF(Hoja1!C7="","",Hoja1!C7)</f>
         <v/>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
       <c r="I7" s="47"/>
       <c r="J7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="90" t="str">
+      <c r="K7" s="127" t="str">
         <f>IF(Hoja1!K7="","",Hoja1!K7)</f>
         <v/>
       </c>
-      <c r="L7" s="90"/>
-    </row>
-    <row r="8" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="127"/>
+    </row>
+    <row r="8" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3466,45 +3477,45 @@
       <c r="J8" s="26"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81" t="s">
+      <c r="I9" s="120"/>
+      <c r="J9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="K9" s="120"/>
+    </row>
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="49" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>1</v>
       </c>
@@ -3539,7 +3550,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -3560,7 +3571,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3581,7 +3592,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3623,7 +3634,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>7</v>
       </c>
@@ -3665,7 +3676,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>8</v>
       </c>
@@ -3686,7 +3697,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>9</v>
       </c>
@@ -3707,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>10</v>
       </c>
@@ -3728,7 +3739,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>11</v>
       </c>
@@ -3749,7 +3760,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>12</v>
       </c>
@@ -3770,7 +3781,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>13</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>14</v>
       </c>
@@ -3812,7 +3823,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>16</v>
       </c>
@@ -3854,7 +3865,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>17</v>
       </c>
@@ -3875,7 +3886,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>18</v>
       </c>
@@ -3896,7 +3907,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>19</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>20</v>
       </c>
@@ -3938,7 +3949,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>21</v>
       </c>
@@ -3959,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -3980,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>23</v>
       </c>
@@ -4001,7 +4012,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>24</v>
       </c>
@@ -4022,7 +4033,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>25</v>
       </c>
@@ -4043,7 +4054,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>26</v>
       </c>
@@ -4064,7 +4075,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>27</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>28</v>
       </c>
@@ -4106,7 +4117,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>29</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>30</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>31</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>32</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>33</v>
       </c>
@@ -4211,7 +4222,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>34</v>
       </c>
@@ -4232,7 +4243,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>35</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>36</v>
       </c>
@@ -4274,7 +4285,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>37</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>38</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>39</v>
       </c>
@@ -4337,7 +4348,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f>A49+1</f>
         <v>40</v>
@@ -4359,7 +4370,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <f t="shared" ref="A51:A59" si="2">A50+1</f>
         <v>41</v>
@@ -4381,7 +4392,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -4403,7 +4414,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -4425,7 +4436,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -4447,7 +4458,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4469,7 +4480,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4491,7 +4502,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4513,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4535,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4557,8 +4568,8 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="101">
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="63">
         <v>50</v>
       </c>
       <c r="B60" s="17"/>
@@ -4578,8 +4589,8 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="101">
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="63">
         <v>51</v>
       </c>
       <c r="B61" s="17"/>
@@ -4599,8 +4610,8 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="101">
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="63">
         <v>52</v>
       </c>
       <c r="B62" s="17"/>
@@ -4620,8 +4631,8 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="101">
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="63">
         <v>53</v>
       </c>
       <c r="B63" s="17"/>
@@ -4641,8 +4652,8 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="101">
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="63">
         <v>54</v>
       </c>
       <c r="B64" s="17"/>
@@ -4662,8 +4673,8 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="101">
+    <row r="65" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="63">
         <v>55</v>
       </c>
       <c r="B65" s="17"/>
@@ -4683,8 +4694,8 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="101">
+    <row r="66" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="63">
         <v>56</v>
       </c>
       <c r="B66" s="17"/>
@@ -4704,8 +4715,8 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="101">
+    <row r="67" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="63">
         <v>57</v>
       </c>
       <c r="B67" s="17"/>
@@ -4725,8 +4736,8 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="101">
+    <row r="68" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="63">
         <v>58</v>
       </c>
       <c r="B68" s="17"/>
@@ -4746,8 +4757,8 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="101">
+    <row r="69" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="63">
         <v>59</v>
       </c>
       <c r="B69" s="17"/>
@@ -4767,7 +4778,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="38">
         <v>60</v>
       </c>
@@ -4788,12 +4799,12 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="133" t="s">
+    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="133"/>
-      <c r="C71" s="133"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="57" t="str">
         <f>IF(Hoja1!D71="","",Hoja1!D71)</f>
         <v/>
@@ -4807,7 +4818,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="36" t="s">
         <v>16</v>
       </c>
@@ -4817,43 +4828,42 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-    </row>
-    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+    </row>
+    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
+        <v>23</v>
+      </c>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
-      <c r="H74" s="134" t="s">
+      <c r="H74" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4ZD93nVzm9rL2zYD5+NZUY+CFG03nOqkxgoqN87DkG8x0b5pBG8f6t+Jxu9tpr3fP07+rTGqrpKUdQ11mbgabw==" saltValue="CCzYKRkdApDZMuKLtw0r3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="22">
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="H74:K74"/>
@@ -4863,12 +4873,13 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -4877,95 +4888,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="100" t="str">
+      <c r="D3" s="132" t="str">
         <f>IF(Hoja1!D2="","",Hoja1!D2)</f>
         <v/>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -4978,72 +4989,72 @@
       <c r="J5" s="24"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="97" t="str">
+      <c r="C6" s="133" t="str">
         <f>IF(Hoja1!C5="","",Hoja1!C5)</f>
         <v/>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="99" t="str">
+      <c r="C7" s="129" t="str">
         <f>IF(Hoja1!C6="","",Hoja1!C6)</f>
         <v/>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="I7" s="48"/>
       <c r="J7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="98" t="str">
+      <c r="K7" s="130" t="str">
         <f>IF(Hoja1!K5="","",Hoja1!K5)</f>
-        <v>ene-abr2020</v>
-      </c>
-      <c r="L7" s="98"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>may-ago 2020</v>
+      </c>
+      <c r="L7" s="130"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="97" t="str">
+      <c r="C8" s="133" t="str">
         <f>IF(Hoja1!C7="","",Hoja1!C7)</f>
         <v/>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="47"/>
       <c r="J8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="98" t="str">
+      <c r="K8" s="130" t="str">
         <f>IF(Hoja1!K7="","",Hoja1!K7)</f>
         <v/>
       </c>
-      <c r="L8" s="98"/>
-    </row>
-    <row r="9" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="130"/>
+    </row>
+    <row r="9" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -5056,45 +5067,45 @@
       <c r="J9" s="26"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="81" t="s">
+      <c r="I10" s="120"/>
+      <c r="J10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="82"/>
-    </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+      <c r="K10" s="120"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="108"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="49" t="s">
         <v>7</v>
       </c>
@@ -5108,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>1</v>
       </c>
@@ -5129,7 +5140,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5150,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -5171,7 +5182,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -5192,7 +5203,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -5213,7 +5224,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -5234,7 +5245,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -5255,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -5276,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>9</v>
       </c>
@@ -5297,7 +5308,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -5318,7 +5329,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>11</v>
       </c>
@@ -5339,7 +5350,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>12</v>
       </c>
@@ -5360,7 +5371,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>13</v>
       </c>
@@ -5381,7 +5392,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>14</v>
       </c>
@@ -5402,7 +5413,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>15</v>
       </c>
@@ -5423,7 +5434,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>16</v>
       </c>
@@ -5444,7 +5455,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>17</v>
       </c>
@@ -5465,7 +5476,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>18</v>
       </c>
@@ -5486,7 +5497,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>19</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>21</v>
       </c>
@@ -5549,7 +5560,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>22</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>23</v>
       </c>
@@ -5591,7 +5602,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>24</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>25</v>
       </c>
@@ -5633,7 +5644,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>26</v>
       </c>
@@ -5654,7 +5665,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>27</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>28</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>29</v>
       </c>
@@ -5717,7 +5728,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>30</v>
       </c>
@@ -5738,7 +5749,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>31</v>
       </c>
@@ -5759,7 +5770,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>32</v>
       </c>
@@ -5780,7 +5791,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>33</v>
       </c>
@@ -5801,7 +5812,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>34</v>
       </c>
@@ -5822,7 +5833,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>35</v>
       </c>
@@ -5843,7 +5854,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>36</v>
       </c>
@@ -5864,7 +5875,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>37</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>38</v>
       </c>
@@ -5906,7 +5917,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>39</v>
       </c>
@@ -5927,7 +5938,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <f>A50+1</f>
         <v>40</v>
@@ -5949,7 +5960,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" ref="A52:A61" si="2">A51+1</f>
         <v>41</v>
@@ -5971,7 +5982,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5993,7 +6004,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -6015,7 +6026,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -6037,7 +6048,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -6059,7 +6070,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -6081,7 +6092,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -6103,7 +6114,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -6125,7 +6136,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -6147,7 +6158,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="38">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -6169,12 +6180,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
       <c r="D62" s="57" t="str">
         <f>IF(Hoja1!D71="","",Hoja1!D71)</f>
         <v/>
@@ -6188,7 +6199,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D63" s="36" t="s">
         <v>16</v>
       </c>
@@ -6198,40 +6209,33 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
-      <c r="H65" s="66" t="s">
+      <c r="H65" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
+      <c r="I65" s="135"/>
+      <c r="J65" s="135"/>
+      <c r="K65" s="135"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0pbJ7DWPtSHRxBMlil2Zpc9jYwccwBd33UyxLwdchEToXvvLYwmYGA0JHmhl2WKsOFn7dTwPEoUar2dDV/RWaQ==" saltValue="Gnm8dXeJ6gr0D8NmE+C11A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="22">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="C65:D65"/>
@@ -6247,6 +6251,13 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>

--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD0524-C9D3-476F-BDC7-27105EA626FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D0BEE-D623-4D64-8C57-D79D1A3D362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
   </bookViews>
@@ -733,29 +733,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,28 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,20 +1401,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1423,9 +1423,9 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="32"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1435,20 +1435,20 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,110 +1458,110 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="52"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="63" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="65" t="s">
+      <c r="K9" s="72"/>
+      <c r="L9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="66"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="62"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1582,21 +1582,11 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="72">
-        <v>0</v>
-      </c>
-      <c r="F11" s="72">
-        <v>0</v>
-      </c>
-      <c r="G11" s="72">
-        <v>0</v>
-      </c>
-      <c r="H11" s="72">
-        <v>0</v>
-      </c>
-      <c r="I11" s="72">
-        <v>0</v>
-      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="37"/>
       <c r="K11" s="38" t="s">
         <v>20</v>
@@ -1613,21 +1603,11 @@
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="72">
-        <v>0</v>
-      </c>
-      <c r="F12" s="72">
-        <v>0</v>
-      </c>
-      <c r="G12" s="72">
-        <v>0</v>
-      </c>
-      <c r="H12" s="72">
-        <v>0</v>
-      </c>
-      <c r="I12" s="72">
-        <v>0</v>
-      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="39"/>
       <c r="K12" s="38" t="s">
         <v>20</v>
@@ -1644,21 +1624,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="72">
-        <v>0</v>
-      </c>
-      <c r="F13" s="72">
-        <v>0</v>
-      </c>
-      <c r="G13" s="72">
-        <v>0</v>
-      </c>
-      <c r="H13" s="72">
-        <v>0</v>
-      </c>
-      <c r="I13" s="72">
-        <v>0</v>
-      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="39"/>
       <c r="K13" s="38" t="s">
         <v>20</v>
@@ -1675,21 +1645,11 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="72">
-        <v>0</v>
-      </c>
-      <c r="F14" s="72">
-        <v>0</v>
-      </c>
-      <c r="G14" s="72">
-        <v>0</v>
-      </c>
-      <c r="H14" s="72">
-        <v>0</v>
-      </c>
-      <c r="I14" s="72">
-        <v>0</v>
-      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="39"/>
       <c r="K14" s="38" t="s">
         <v>20</v>
@@ -1706,21 +1666,11 @@
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="72">
-        <v>0</v>
-      </c>
-      <c r="F15" s="72">
-        <v>0</v>
-      </c>
-      <c r="G15" s="72">
-        <v>0</v>
-      </c>
-      <c r="H15" s="72">
-        <v>0</v>
-      </c>
-      <c r="I15" s="72">
-        <v>0</v>
-      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="39"/>
       <c r="K15" s="38" t="s">
         <v>20</v>
@@ -1737,21 +1687,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="72">
-        <v>0</v>
-      </c>
-      <c r="F16" s="72">
-        <v>0</v>
-      </c>
-      <c r="G16" s="72">
-        <v>0</v>
-      </c>
-      <c r="H16" s="72">
-        <v>0</v>
-      </c>
-      <c r="I16" s="72">
-        <v>0</v>
-      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="39"/>
       <c r="K16" s="38" t="s">
         <v>20</v>
@@ -1768,21 +1708,11 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="72">
-        <v>0</v>
-      </c>
-      <c r="F17" s="72">
-        <v>0</v>
-      </c>
-      <c r="G17" s="72">
-        <v>0</v>
-      </c>
-      <c r="H17" s="72">
-        <v>0</v>
-      </c>
-      <c r="I17" s="72">
-        <v>0</v>
-      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="39"/>
       <c r="K17" s="38" t="s">
         <v>20</v>
@@ -1799,21 +1729,11 @@
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="72">
-        <v>0</v>
-      </c>
-      <c r="F18" s="72">
-        <v>0</v>
-      </c>
-      <c r="G18" s="72">
-        <v>0</v>
-      </c>
-      <c r="H18" s="72">
-        <v>0</v>
-      </c>
-      <c r="I18" s="72">
-        <v>0</v>
-      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="39"/>
       <c r="K18" s="38" t="s">
         <v>20</v>
@@ -1830,21 +1750,11 @@
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="72">
-        <v>0</v>
-      </c>
-      <c r="F19" s="72">
-        <v>0</v>
-      </c>
-      <c r="G19" s="72">
-        <v>0</v>
-      </c>
-      <c r="H19" s="72">
-        <v>0</v>
-      </c>
-      <c r="I19" s="72">
-        <v>0</v>
-      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="39"/>
       <c r="K19" s="38" t="s">
         <v>20</v>
@@ -1861,21 +1771,11 @@
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="72">
-        <v>0</v>
-      </c>
-      <c r="F20" s="72">
-        <v>0</v>
-      </c>
-      <c r="G20" s="72">
-        <v>0</v>
-      </c>
-      <c r="H20" s="72">
-        <v>0</v>
-      </c>
-      <c r="I20" s="72">
-        <v>0</v>
-      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="39"/>
       <c r="K20" s="38" t="s">
         <v>20</v>
@@ -1892,21 +1792,11 @@
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="72">
-        <v>0</v>
-      </c>
-      <c r="F21" s="72">
-        <v>0</v>
-      </c>
-      <c r="G21" s="72">
-        <v>0</v>
-      </c>
-      <c r="H21" s="72">
-        <v>0</v>
-      </c>
-      <c r="I21" s="72">
-        <v>0</v>
-      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="39"/>
       <c r="K21" s="38" t="s">
         <v>20</v>
@@ -1923,21 +1813,11 @@
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="72">
-        <v>0</v>
-      </c>
-      <c r="F22" s="72">
-        <v>0</v>
-      </c>
-      <c r="G22" s="72">
-        <v>0</v>
-      </c>
-      <c r="H22" s="72">
-        <v>0</v>
-      </c>
-      <c r="I22" s="72">
-        <v>0</v>
-      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="39"/>
       <c r="K22" s="38" t="s">
         <v>20</v>
@@ -1954,21 +1834,11 @@
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="72">
-        <v>0</v>
-      </c>
-      <c r="F23" s="72">
-        <v>0</v>
-      </c>
-      <c r="G23" s="72">
-        <v>0</v>
-      </c>
-      <c r="H23" s="72">
-        <v>0</v>
-      </c>
-      <c r="I23" s="72">
-        <v>0</v>
-      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="39"/>
       <c r="K23" s="38" t="s">
         <v>20</v>
@@ -1985,21 +1855,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="72">
-        <v>0</v>
-      </c>
-      <c r="F24" s="72">
-        <v>0</v>
-      </c>
-      <c r="G24" s="72">
-        <v>0</v>
-      </c>
-      <c r="H24" s="72">
-        <v>0</v>
-      </c>
-      <c r="I24" s="72">
-        <v>0</v>
-      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="40"/>
       <c r="K24" s="38" t="s">
         <v>20</v>
@@ -2016,21 +1876,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="72">
-        <v>0</v>
-      </c>
-      <c r="F25" s="72">
-        <v>0</v>
-      </c>
-      <c r="G25" s="72">
-        <v>0</v>
-      </c>
-      <c r="H25" s="72">
-        <v>0</v>
-      </c>
-      <c r="I25" s="72">
-        <v>0</v>
-      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="40"/>
       <c r="K25" s="38" t="s">
         <v>20</v>
@@ -2047,21 +1897,11 @@
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="72">
-        <v>0</v>
-      </c>
-      <c r="F26" s="72">
-        <v>0</v>
-      </c>
-      <c r="G26" s="72">
-        <v>0</v>
-      </c>
-      <c r="H26" s="72">
-        <v>0</v>
-      </c>
-      <c r="I26" s="72">
-        <v>0</v>
-      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="41"/>
       <c r="K26" s="38" t="s">
         <v>20</v>
@@ -2078,21 +1918,11 @@
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="72">
-        <v>0</v>
-      </c>
-      <c r="F27" s="72">
-        <v>0</v>
-      </c>
-      <c r="G27" s="72">
-        <v>0</v>
-      </c>
-      <c r="H27" s="72">
-        <v>0</v>
-      </c>
-      <c r="I27" s="72">
-        <v>0</v>
-      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="40"/>
       <c r="K27" s="38" t="s">
         <v>20</v>
@@ -2109,21 +1939,11 @@
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="72">
-        <v>0</v>
-      </c>
-      <c r="F28" s="72">
-        <v>0</v>
-      </c>
-      <c r="G28" s="72">
-        <v>0</v>
-      </c>
-      <c r="H28" s="72">
-        <v>0</v>
-      </c>
-      <c r="I28" s="72">
-        <v>0</v>
-      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="41"/>
       <c r="K28" s="38" t="s">
         <v>20</v>
@@ -2140,21 +1960,11 @@
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
-      <c r="E29" s="72">
-        <v>0</v>
-      </c>
-      <c r="F29" s="72">
-        <v>0</v>
-      </c>
-      <c r="G29" s="72">
-        <v>0</v>
-      </c>
-      <c r="H29" s="72">
-        <v>0</v>
-      </c>
-      <c r="I29" s="72">
-        <v>0</v>
-      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="41"/>
       <c r="K29" s="38" t="s">
         <v>20</v>
@@ -2171,21 +1981,11 @@
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="72">
-        <v>0</v>
-      </c>
-      <c r="F30" s="72">
-        <v>0</v>
-      </c>
-      <c r="G30" s="72">
-        <v>0</v>
-      </c>
-      <c r="H30" s="72">
-        <v>0</v>
-      </c>
-      <c r="I30" s="72">
-        <v>0</v>
-      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="41"/>
       <c r="K30" s="38" t="s">
         <v>20</v>
@@ -2202,21 +2002,11 @@
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="72">
-        <v>0</v>
-      </c>
-      <c r="F31" s="72">
-        <v>0</v>
-      </c>
-      <c r="G31" s="72">
-        <v>0</v>
-      </c>
-      <c r="H31" s="72">
-        <v>0</v>
-      </c>
-      <c r="I31" s="72">
-        <v>0</v>
-      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="41"/>
       <c r="K31" s="38" t="s">
         <v>20</v>
@@ -2233,21 +2023,11 @@
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="72">
-        <v>0</v>
-      </c>
-      <c r="F32" s="72">
-        <v>0</v>
-      </c>
-      <c r="G32" s="72">
-        <v>0</v>
-      </c>
-      <c r="H32" s="72">
-        <v>0</v>
-      </c>
-      <c r="I32" s="72">
-        <v>0</v>
-      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="40"/>
       <c r="K32" s="38" t="s">
         <v>20</v>
@@ -2264,21 +2044,11 @@
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="72">
-        <v>0</v>
-      </c>
-      <c r="F33" s="72">
-        <v>0</v>
-      </c>
-      <c r="G33" s="72">
-        <v>0</v>
-      </c>
-      <c r="H33" s="72">
-        <v>0</v>
-      </c>
-      <c r="I33" s="72">
-        <v>0</v>
-      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="40"/>
       <c r="K33" s="38" t="s">
         <v>20</v>
@@ -2295,21 +2065,11 @@
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="72">
-        <v>0</v>
-      </c>
-      <c r="F34" s="72">
-        <v>0</v>
-      </c>
-      <c r="G34" s="72">
-        <v>0</v>
-      </c>
-      <c r="H34" s="72">
-        <v>0</v>
-      </c>
-      <c r="I34" s="72">
-        <v>0</v>
-      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="41"/>
       <c r="K34" s="38" t="s">
         <v>20</v>
@@ -2326,21 +2086,11 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="72">
-        <v>0</v>
-      </c>
-      <c r="F35" s="72">
-        <v>0</v>
-      </c>
-      <c r="G35" s="72">
-        <v>0</v>
-      </c>
-      <c r="H35" s="72">
-        <v>0</v>
-      </c>
-      <c r="I35" s="72">
-        <v>0</v>
-      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="40"/>
       <c r="K35" s="38" t="s">
         <v>20</v>
@@ -2357,21 +2107,11 @@
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="72">
-        <v>0</v>
-      </c>
-      <c r="F36" s="72">
-        <v>0</v>
-      </c>
-      <c r="G36" s="72">
-        <v>0</v>
-      </c>
-      <c r="H36" s="72">
-        <v>0</v>
-      </c>
-      <c r="I36" s="72">
-        <v>0</v>
-      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="41"/>
       <c r="K36" s="38" t="s">
         <v>20</v>
@@ -2388,21 +2128,11 @@
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="72">
-        <v>0</v>
-      </c>
-      <c r="F37" s="72">
-        <v>0</v>
-      </c>
-      <c r="G37" s="72">
-        <v>0</v>
-      </c>
-      <c r="H37" s="72">
-        <v>0</v>
-      </c>
-      <c r="I37" s="72">
-        <v>0</v>
-      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="41"/>
       <c r="K37" s="38" t="s">
         <v>20</v>
@@ -2419,21 +2149,11 @@
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="72">
-        <v>0</v>
-      </c>
-      <c r="F38" s="72">
-        <v>0</v>
-      </c>
-      <c r="G38" s="72">
-        <v>0</v>
-      </c>
-      <c r="H38" s="72">
-        <v>0</v>
-      </c>
-      <c r="I38" s="72">
-        <v>0</v>
-      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="41"/>
       <c r="K38" s="38" t="s">
         <v>20</v>
@@ -2450,21 +2170,11 @@
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="72">
-        <v>0</v>
-      </c>
-      <c r="F39" s="72">
-        <v>0</v>
-      </c>
-      <c r="G39" s="72">
-        <v>0</v>
-      </c>
-      <c r="H39" s="72">
-        <v>0</v>
-      </c>
-      <c r="I39" s="72">
-        <v>0</v>
-      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="40"/>
       <c r="K39" s="38" t="s">
         <v>20</v>
@@ -2481,21 +2191,11 @@
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="72">
-        <v>0</v>
-      </c>
-      <c r="F40" s="72">
-        <v>0</v>
-      </c>
-      <c r="G40" s="72">
-        <v>0</v>
-      </c>
-      <c r="H40" s="72">
-        <v>0</v>
-      </c>
-      <c r="I40" s="72">
-        <v>0</v>
-      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="40"/>
       <c r="K40" s="38" t="s">
         <v>20</v>
@@ -2512,21 +2212,11 @@
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="72">
-        <v>0</v>
-      </c>
-      <c r="F41" s="72">
-        <v>0</v>
-      </c>
-      <c r="G41" s="72">
-        <v>0</v>
-      </c>
-      <c r="H41" s="72">
-        <v>0</v>
-      </c>
-      <c r="I41" s="72">
-        <v>0</v>
-      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="40"/>
       <c r="K41" s="38" t="s">
         <v>20</v>
@@ -2543,21 +2233,11 @@
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="72">
-        <v>0</v>
-      </c>
-      <c r="F42" s="72">
-        <v>0</v>
-      </c>
-      <c r="G42" s="72">
-        <v>0</v>
-      </c>
-      <c r="H42" s="72">
-        <v>0</v>
-      </c>
-      <c r="I42" s="72">
-        <v>0</v>
-      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="41"/>
       <c r="K42" s="38" t="s">
         <v>20</v>
@@ -2574,21 +2254,11 @@
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="72">
-        <v>0</v>
-      </c>
-      <c r="F43" s="72">
-        <v>0</v>
-      </c>
-      <c r="G43" s="72">
-        <v>0</v>
-      </c>
-      <c r="H43" s="72">
-        <v>0</v>
-      </c>
-      <c r="I43" s="72">
-        <v>0</v>
-      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="40"/>
       <c r="K43" s="38" t="s">
         <v>20</v>
@@ -2605,21 +2275,11 @@
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="72">
-        <v>0</v>
-      </c>
-      <c r="F44" s="72">
-        <v>0</v>
-      </c>
-      <c r="G44" s="72">
-        <v>0</v>
-      </c>
-      <c r="H44" s="72">
-        <v>0</v>
-      </c>
-      <c r="I44" s="72">
-        <v>0</v>
-      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="41"/>
       <c r="K44" s="38" t="s">
         <v>20</v>
@@ -2636,21 +2296,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="72">
-        <v>0</v>
-      </c>
-      <c r="F45" s="72">
-        <v>0</v>
-      </c>
-      <c r="G45" s="72">
-        <v>0</v>
-      </c>
-      <c r="H45" s="72">
-        <v>0</v>
-      </c>
-      <c r="I45" s="72">
-        <v>0</v>
-      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="40"/>
       <c r="K45" s="38" t="s">
         <v>20</v>
@@ -2667,21 +2317,11 @@
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="72">
-        <v>0</v>
-      </c>
-      <c r="F46" s="72">
-        <v>0</v>
-      </c>
-      <c r="G46" s="72">
-        <v>0</v>
-      </c>
-      <c r="H46" s="72">
-        <v>0</v>
-      </c>
-      <c r="I46" s="72">
-        <v>0</v>
-      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="41"/>
       <c r="K46" s="38" t="s">
         <v>20</v>
@@ -2698,21 +2338,11 @@
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="72">
-        <v>0</v>
-      </c>
-      <c r="F47" s="72">
-        <v>0</v>
-      </c>
-      <c r="G47" s="72">
-        <v>0</v>
-      </c>
-      <c r="H47" s="72">
-        <v>0</v>
-      </c>
-      <c r="I47" s="72">
-        <v>0</v>
-      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="41"/>
       <c r="K47" s="38" t="s">
         <v>20</v>
@@ -2729,21 +2359,11 @@
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="72">
-        <v>0</v>
-      </c>
-      <c r="F48" s="72">
-        <v>0</v>
-      </c>
-      <c r="G48" s="72">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72">
-        <v>0</v>
-      </c>
-      <c r="I48" s="72">
-        <v>0</v>
-      </c>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="41"/>
       <c r="K48" s="38" t="s">
         <v>20</v>
@@ -2760,21 +2380,11 @@
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="72">
-        <v>0</v>
-      </c>
-      <c r="F49" s="72">
-        <v>0</v>
-      </c>
-      <c r="G49" s="72">
-        <v>0</v>
-      </c>
-      <c r="H49" s="72">
-        <v>0</v>
-      </c>
-      <c r="I49" s="72">
-        <v>0</v>
-      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="41"/>
       <c r="K49" s="38" t="s">
         <v>20</v>
@@ -2791,21 +2401,11 @@
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="72">
-        <v>0</v>
-      </c>
-      <c r="F50" s="72">
-        <v>0</v>
-      </c>
-      <c r="G50" s="72">
-        <v>0</v>
-      </c>
-      <c r="H50" s="72">
-        <v>0</v>
-      </c>
-      <c r="I50" s="72">
-        <v>0</v>
-      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="41"/>
       <c r="K50" s="38" t="s">
         <v>20</v>
@@ -2822,21 +2422,11 @@
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="72">
-        <v>0</v>
-      </c>
-      <c r="F51" s="72">
-        <v>0</v>
-      </c>
-      <c r="G51" s="72">
-        <v>0</v>
-      </c>
-      <c r="H51" s="72">
-        <v>0</v>
-      </c>
-      <c r="I51" s="72">
-        <v>0</v>
-      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="41"/>
       <c r="K51" s="38" t="s">
         <v>20</v>
@@ -2853,21 +2443,11 @@
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="72">
-        <v>0</v>
-      </c>
-      <c r="F52" s="72">
-        <v>0</v>
-      </c>
-      <c r="G52" s="72">
-        <v>0</v>
-      </c>
-      <c r="H52" s="72">
-        <v>0</v>
-      </c>
-      <c r="I52" s="72">
-        <v>0</v>
-      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="41"/>
       <c r="K52" s="38" t="s">
         <v>20</v>
@@ -2884,21 +2464,11 @@
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="72">
-        <v>0</v>
-      </c>
-      <c r="F53" s="72">
-        <v>0</v>
-      </c>
-      <c r="G53" s="72">
-        <v>0</v>
-      </c>
-      <c r="H53" s="72">
-        <v>0</v>
-      </c>
-      <c r="I53" s="72">
-        <v>0</v>
-      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="41"/>
       <c r="K53" s="38" t="s">
         <v>20</v>
@@ -2915,21 +2485,11 @@
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="72">
-        <v>0</v>
-      </c>
-      <c r="F54" s="72">
-        <v>0</v>
-      </c>
-      <c r="G54" s="72">
-        <v>0</v>
-      </c>
-      <c r="H54" s="72">
-        <v>0</v>
-      </c>
-      <c r="I54" s="72">
-        <v>0</v>
-      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="41"/>
       <c r="K54" s="38" t="s">
         <v>20</v>
@@ -2946,21 +2506,11 @@
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="72">
-        <v>0</v>
-      </c>
-      <c r="F55" s="72">
-        <v>0</v>
-      </c>
-      <c r="G55" s="72">
-        <v>0</v>
-      </c>
-      <c r="H55" s="72">
-        <v>0</v>
-      </c>
-      <c r="I55" s="72">
-        <v>0</v>
-      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="41"/>
       <c r="K55" s="38" t="s">
         <v>20</v>
@@ -2977,21 +2527,11 @@
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="72">
-        <v>0</v>
-      </c>
-      <c r="F56" s="72">
-        <v>0</v>
-      </c>
-      <c r="G56" s="72">
-        <v>0</v>
-      </c>
-      <c r="H56" s="72">
-        <v>0</v>
-      </c>
-      <c r="I56" s="72">
-        <v>0</v>
-      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="41"/>
       <c r="K56" s="38" t="s">
         <v>20</v>
@@ -3008,21 +2548,11 @@
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="72">
-        <v>0</v>
-      </c>
-      <c r="F57" s="72">
-        <v>0</v>
-      </c>
-      <c r="G57" s="72">
-        <v>0</v>
-      </c>
-      <c r="H57" s="72">
-        <v>0</v>
-      </c>
-      <c r="I57" s="72">
-        <v>0</v>
-      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="41"/>
       <c r="K57" s="38" t="s">
         <v>20</v>
@@ -3039,21 +2569,11 @@
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="72">
-        <v>0</v>
-      </c>
-      <c r="F58" s="72">
-        <v>0</v>
-      </c>
-      <c r="G58" s="72">
-        <v>0</v>
-      </c>
-      <c r="H58" s="72">
-        <v>0</v>
-      </c>
-      <c r="I58" s="72">
-        <v>0</v>
-      </c>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="41"/>
       <c r="K58" s="38" t="s">
         <v>20</v>
@@ -3070,21 +2590,11 @@
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="72">
-        <v>0</v>
-      </c>
-      <c r="F59" s="72">
-        <v>0</v>
-      </c>
-      <c r="G59" s="72">
-        <v>0</v>
-      </c>
-      <c r="H59" s="72">
-        <v>0</v>
-      </c>
-      <c r="I59" s="72">
-        <v>0</v>
-      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="41"/>
       <c r="K59" s="38" t="s">
         <v>20</v>
@@ -3101,21 +2611,11 @@
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="72">
-        <v>0</v>
-      </c>
-      <c r="F60" s="72">
-        <v>0</v>
-      </c>
-      <c r="G60" s="72">
-        <v>0</v>
-      </c>
-      <c r="H60" s="72">
-        <v>0</v>
-      </c>
-      <c r="I60" s="72">
-        <v>0</v>
-      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="41"/>
       <c r="K60" s="38" t="s">
         <v>20</v>
@@ -3132,21 +2632,11 @@
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="72">
-        <v>0</v>
-      </c>
-      <c r="F61" s="72">
-        <v>0</v>
-      </c>
-      <c r="G61" s="72">
-        <v>0</v>
-      </c>
-      <c r="H61" s="72">
-        <v>0</v>
-      </c>
-      <c r="I61" s="72">
-        <v>0</v>
-      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
       <c r="J61" s="41"/>
       <c r="K61" s="38" t="s">
         <v>20</v>
@@ -3163,21 +2653,11 @@
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="72">
-        <v>0</v>
-      </c>
-      <c r="F62" s="72">
-        <v>0</v>
-      </c>
-      <c r="G62" s="72">
-        <v>0</v>
-      </c>
-      <c r="H62" s="72">
-        <v>0</v>
-      </c>
-      <c r="I62" s="72">
-        <v>0</v>
-      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="41"/>
       <c r="K62" s="38" t="s">
         <v>20</v>
@@ -3194,21 +2674,11 @@
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="72">
-        <v>0</v>
-      </c>
-      <c r="F63" s="72">
-        <v>0</v>
-      </c>
-      <c r="G63" s="72">
-        <v>0</v>
-      </c>
-      <c r="H63" s="72">
-        <v>0</v>
-      </c>
-      <c r="I63" s="72">
-        <v>0</v>
-      </c>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="41"/>
       <c r="K63" s="38" t="s">
         <v>20</v>
@@ -3225,21 +2695,11 @@
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
-      <c r="E64" s="72">
-        <v>0</v>
-      </c>
-      <c r="F64" s="72">
-        <v>0</v>
-      </c>
-      <c r="G64" s="72">
-        <v>0</v>
-      </c>
-      <c r="H64" s="72">
-        <v>0</v>
-      </c>
-      <c r="I64" s="72">
-        <v>0</v>
-      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="41"/>
       <c r="K64" s="38" t="s">
         <v>20</v>
@@ -3256,21 +2716,11 @@
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
-      <c r="E65" s="72">
-        <v>0</v>
-      </c>
-      <c r="F65" s="72">
-        <v>0</v>
-      </c>
-      <c r="G65" s="72">
-        <v>0</v>
-      </c>
-      <c r="H65" s="72">
-        <v>0</v>
-      </c>
-      <c r="I65" s="72">
-        <v>0</v>
-      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="41"/>
       <c r="K65" s="38" t="s">
         <v>20</v>
@@ -3287,21 +2737,11 @@
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="72">
-        <v>0</v>
-      </c>
-      <c r="F66" s="72">
-        <v>0</v>
-      </c>
-      <c r="G66" s="72">
-        <v>0</v>
-      </c>
-      <c r="H66" s="72">
-        <v>0</v>
-      </c>
-      <c r="I66" s="72">
-        <v>0</v>
-      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="41"/>
       <c r="K66" s="38" t="s">
         <v>20</v>
@@ -3318,21 +2758,11 @@
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="72">
-        <v>0</v>
-      </c>
-      <c r="F67" s="72">
-        <v>0</v>
-      </c>
-      <c r="G67" s="72">
-        <v>0</v>
-      </c>
-      <c r="H67" s="72">
-        <v>0</v>
-      </c>
-      <c r="I67" s="72">
-        <v>0</v>
-      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="41"/>
       <c r="K67" s="38" t="s">
         <v>20</v>
@@ -3349,21 +2779,11 @@
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="72">
-        <v>0</v>
-      </c>
-      <c r="F68" s="72">
-        <v>0</v>
-      </c>
-      <c r="G68" s="72">
-        <v>0</v>
-      </c>
-      <c r="H68" s="72">
-        <v>0</v>
-      </c>
-      <c r="I68" s="72">
-        <v>0</v>
-      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="41"/>
       <c r="K68" s="38" t="s">
         <v>20</v>
@@ -3380,21 +2800,11 @@
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="72">
-        <v>0</v>
-      </c>
-      <c r="F69" s="72">
-        <v>0</v>
-      </c>
-      <c r="G69" s="72">
-        <v>0</v>
-      </c>
-      <c r="H69" s="72">
-        <v>0</v>
-      </c>
-      <c r="I69" s="72">
-        <v>0</v>
-      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
       <c r="J69" s="41"/>
       <c r="K69" s="38" t="s">
         <v>20</v>
@@ -3411,21 +2821,11 @@
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="72">
-        <v>0</v>
-      </c>
-      <c r="F70" s="72">
-        <v>0</v>
-      </c>
-      <c r="G70" s="72">
-        <v>0</v>
-      </c>
-      <c r="H70" s="72">
-        <v>0</v>
-      </c>
-      <c r="I70" s="72">
-        <v>0</v>
-      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="43"/>
       <c r="K70" s="44" t="s">
         <v>20</v>
@@ -3436,11 +2836,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="26"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -3471,28 +2871,21 @@
       <c r="A74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="31"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="48" t="s">
+      <c r="I74" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -3508,6 +2901,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -3538,20 +2938,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3560,9 +2960,9 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="33"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3572,20 +2972,20 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,110 +2995,110 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="52"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="63" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="65" t="s">
+      <c r="K9" s="72"/>
+      <c r="L9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="66"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="62"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -3719,21 +3119,11 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="72">
-        <v>0</v>
-      </c>
-      <c r="F11" s="72">
-        <v>0</v>
-      </c>
-      <c r="G11" s="72">
-        <v>0</v>
-      </c>
-      <c r="H11" s="72">
-        <v>0</v>
-      </c>
-      <c r="I11" s="72">
-        <v>0</v>
-      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="37"/>
       <c r="K11" s="38" t="s">
         <v>20</v>
@@ -3750,21 +3140,11 @@
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="72">
-        <v>0</v>
-      </c>
-      <c r="F12" s="72">
-        <v>0</v>
-      </c>
-      <c r="G12" s="72">
-        <v>0</v>
-      </c>
-      <c r="H12" s="72">
-        <v>0</v>
-      </c>
-      <c r="I12" s="72">
-        <v>0</v>
-      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="39"/>
       <c r="K12" s="38" t="s">
         <v>20</v>
@@ -3781,21 +3161,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="72">
-        <v>0</v>
-      </c>
-      <c r="F13" s="72">
-        <v>0</v>
-      </c>
-      <c r="G13" s="72">
-        <v>0</v>
-      </c>
-      <c r="H13" s="72">
-        <v>0</v>
-      </c>
-      <c r="I13" s="72">
-        <v>0</v>
-      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="39"/>
       <c r="K13" s="38" t="s">
         <v>20</v>
@@ -3812,21 +3182,11 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="72">
-        <v>0</v>
-      </c>
-      <c r="F14" s="72">
-        <v>0</v>
-      </c>
-      <c r="G14" s="72">
-        <v>0</v>
-      </c>
-      <c r="H14" s="72">
-        <v>0</v>
-      </c>
-      <c r="I14" s="72">
-        <v>0</v>
-      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="39"/>
       <c r="K14" s="38" t="s">
         <v>20</v>
@@ -3843,21 +3203,11 @@
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="72">
-        <v>0</v>
-      </c>
-      <c r="F15" s="72">
-        <v>0</v>
-      </c>
-      <c r="G15" s="72">
-        <v>0</v>
-      </c>
-      <c r="H15" s="72">
-        <v>0</v>
-      </c>
-      <c r="I15" s="72">
-        <v>0</v>
-      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="39"/>
       <c r="K15" s="38" t="s">
         <v>20</v>
@@ -3874,21 +3224,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="72">
-        <v>0</v>
-      </c>
-      <c r="F16" s="72">
-        <v>0</v>
-      </c>
-      <c r="G16" s="72">
-        <v>0</v>
-      </c>
-      <c r="H16" s="72">
-        <v>0</v>
-      </c>
-      <c r="I16" s="72">
-        <v>0</v>
-      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="39"/>
       <c r="K16" s="38" t="s">
         <v>20</v>
@@ -3905,21 +3245,11 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="72">
-        <v>0</v>
-      </c>
-      <c r="F17" s="72">
-        <v>0</v>
-      </c>
-      <c r="G17" s="72">
-        <v>0</v>
-      </c>
-      <c r="H17" s="72">
-        <v>0</v>
-      </c>
-      <c r="I17" s="72">
-        <v>0</v>
-      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="39"/>
       <c r="K17" s="38" t="s">
         <v>20</v>
@@ -3936,21 +3266,11 @@
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="72">
-        <v>0</v>
-      </c>
-      <c r="F18" s="72">
-        <v>0</v>
-      </c>
-      <c r="G18" s="72">
-        <v>0</v>
-      </c>
-      <c r="H18" s="72">
-        <v>0</v>
-      </c>
-      <c r="I18" s="72">
-        <v>0</v>
-      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="39"/>
       <c r="K18" s="38" t="s">
         <v>20</v>
@@ -3967,21 +3287,11 @@
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="72">
-        <v>0</v>
-      </c>
-      <c r="F19" s="72">
-        <v>0</v>
-      </c>
-      <c r="G19" s="72">
-        <v>0</v>
-      </c>
-      <c r="H19" s="72">
-        <v>0</v>
-      </c>
-      <c r="I19" s="72">
-        <v>0</v>
-      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="39"/>
       <c r="K19" s="38" t="s">
         <v>20</v>
@@ -3998,21 +3308,11 @@
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="72">
-        <v>0</v>
-      </c>
-      <c r="F20" s="72">
-        <v>0</v>
-      </c>
-      <c r="G20" s="72">
-        <v>0</v>
-      </c>
-      <c r="H20" s="72">
-        <v>0</v>
-      </c>
-      <c r="I20" s="72">
-        <v>0</v>
-      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="39"/>
       <c r="K20" s="38" t="s">
         <v>20</v>
@@ -4029,21 +3329,11 @@
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="72">
-        <v>0</v>
-      </c>
-      <c r="F21" s="72">
-        <v>0</v>
-      </c>
-      <c r="G21" s="72">
-        <v>0</v>
-      </c>
-      <c r="H21" s="72">
-        <v>0</v>
-      </c>
-      <c r="I21" s="72">
-        <v>0</v>
-      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="39"/>
       <c r="K21" s="38" t="s">
         <v>20</v>
@@ -4060,21 +3350,11 @@
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="72">
-        <v>0</v>
-      </c>
-      <c r="F22" s="72">
-        <v>0</v>
-      </c>
-      <c r="G22" s="72">
-        <v>0</v>
-      </c>
-      <c r="H22" s="72">
-        <v>0</v>
-      </c>
-      <c r="I22" s="72">
-        <v>0</v>
-      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="39"/>
       <c r="K22" s="38" t="s">
         <v>20</v>
@@ -4091,21 +3371,11 @@
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="72">
-        <v>0</v>
-      </c>
-      <c r="F23" s="72">
-        <v>0</v>
-      </c>
-      <c r="G23" s="72">
-        <v>0</v>
-      </c>
-      <c r="H23" s="72">
-        <v>0</v>
-      </c>
-      <c r="I23" s="72">
-        <v>0</v>
-      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="39"/>
       <c r="K23" s="38" t="s">
         <v>20</v>
@@ -4122,21 +3392,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="72">
-        <v>0</v>
-      </c>
-      <c r="F24" s="72">
-        <v>0</v>
-      </c>
-      <c r="G24" s="72">
-        <v>0</v>
-      </c>
-      <c r="H24" s="72">
-        <v>0</v>
-      </c>
-      <c r="I24" s="72">
-        <v>0</v>
-      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="40"/>
       <c r="K24" s="38" t="s">
         <v>20</v>
@@ -4153,21 +3413,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="72">
-        <v>0</v>
-      </c>
-      <c r="F25" s="72">
-        <v>0</v>
-      </c>
-      <c r="G25" s="72">
-        <v>0</v>
-      </c>
-      <c r="H25" s="72">
-        <v>0</v>
-      </c>
-      <c r="I25" s="72">
-        <v>0</v>
-      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="40"/>
       <c r="K25" s="38" t="s">
         <v>20</v>
@@ -4184,21 +3434,11 @@
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="72">
-        <v>0</v>
-      </c>
-      <c r="F26" s="72">
-        <v>0</v>
-      </c>
-      <c r="G26" s="72">
-        <v>0</v>
-      </c>
-      <c r="H26" s="72">
-        <v>0</v>
-      </c>
-      <c r="I26" s="72">
-        <v>0</v>
-      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="41"/>
       <c r="K26" s="38" t="s">
         <v>20</v>
@@ -4215,21 +3455,11 @@
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="72">
-        <v>0</v>
-      </c>
-      <c r="F27" s="72">
-        <v>0</v>
-      </c>
-      <c r="G27" s="72">
-        <v>0</v>
-      </c>
-      <c r="H27" s="72">
-        <v>0</v>
-      </c>
-      <c r="I27" s="72">
-        <v>0</v>
-      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="40"/>
       <c r="K27" s="38" t="s">
         <v>20</v>
@@ -4246,21 +3476,11 @@
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="72">
-        <v>0</v>
-      </c>
-      <c r="F28" s="72">
-        <v>0</v>
-      </c>
-      <c r="G28" s="72">
-        <v>0</v>
-      </c>
-      <c r="H28" s="72">
-        <v>0</v>
-      </c>
-      <c r="I28" s="72">
-        <v>0</v>
-      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="41"/>
       <c r="K28" s="38" t="s">
         <v>20</v>
@@ -4277,21 +3497,11 @@
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
-      <c r="E29" s="72">
-        <v>0</v>
-      </c>
-      <c r="F29" s="72">
-        <v>0</v>
-      </c>
-      <c r="G29" s="72">
-        <v>0</v>
-      </c>
-      <c r="H29" s="72">
-        <v>0</v>
-      </c>
-      <c r="I29" s="72">
-        <v>0</v>
-      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="41"/>
       <c r="K29" s="38" t="s">
         <v>20</v>
@@ -4308,21 +3518,11 @@
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="72">
-        <v>0</v>
-      </c>
-      <c r="F30" s="72">
-        <v>0</v>
-      </c>
-      <c r="G30" s="72">
-        <v>0</v>
-      </c>
-      <c r="H30" s="72">
-        <v>0</v>
-      </c>
-      <c r="I30" s="72">
-        <v>0</v>
-      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="41"/>
       <c r="K30" s="38" t="s">
         <v>20</v>
@@ -4339,21 +3539,11 @@
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="72">
-        <v>0</v>
-      </c>
-      <c r="F31" s="72">
-        <v>0</v>
-      </c>
-      <c r="G31" s="72">
-        <v>0</v>
-      </c>
-      <c r="H31" s="72">
-        <v>0</v>
-      </c>
-      <c r="I31" s="72">
-        <v>0</v>
-      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="41"/>
       <c r="K31" s="38" t="s">
         <v>20</v>
@@ -4370,21 +3560,11 @@
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="72">
-        <v>0</v>
-      </c>
-      <c r="F32" s="72">
-        <v>0</v>
-      </c>
-      <c r="G32" s="72">
-        <v>0</v>
-      </c>
-      <c r="H32" s="72">
-        <v>0</v>
-      </c>
-      <c r="I32" s="72">
-        <v>0</v>
-      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="40"/>
       <c r="K32" s="38" t="s">
         <v>20</v>
@@ -4401,21 +3581,11 @@
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="72">
-        <v>0</v>
-      </c>
-      <c r="F33" s="72">
-        <v>0</v>
-      </c>
-      <c r="G33" s="72">
-        <v>0</v>
-      </c>
-      <c r="H33" s="72">
-        <v>0</v>
-      </c>
-      <c r="I33" s="72">
-        <v>0</v>
-      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="40"/>
       <c r="K33" s="38" t="s">
         <v>20</v>
@@ -4432,21 +3602,11 @@
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="72">
-        <v>0</v>
-      </c>
-      <c r="F34" s="72">
-        <v>0</v>
-      </c>
-      <c r="G34" s="72">
-        <v>0</v>
-      </c>
-      <c r="H34" s="72">
-        <v>0</v>
-      </c>
-      <c r="I34" s="72">
-        <v>0</v>
-      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="41"/>
       <c r="K34" s="38" t="s">
         <v>20</v>
@@ -4463,21 +3623,11 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="72">
-        <v>0</v>
-      </c>
-      <c r="F35" s="72">
-        <v>0</v>
-      </c>
-      <c r="G35" s="72">
-        <v>0</v>
-      </c>
-      <c r="H35" s="72">
-        <v>0</v>
-      </c>
-      <c r="I35" s="72">
-        <v>0</v>
-      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="40"/>
       <c r="K35" s="38" t="s">
         <v>20</v>
@@ -4494,21 +3644,11 @@
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="72">
-        <v>0</v>
-      </c>
-      <c r="F36" s="72">
-        <v>0</v>
-      </c>
-      <c r="G36" s="72">
-        <v>0</v>
-      </c>
-      <c r="H36" s="72">
-        <v>0</v>
-      </c>
-      <c r="I36" s="72">
-        <v>0</v>
-      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="41"/>
       <c r="K36" s="38" t="s">
         <v>20</v>
@@ -4525,21 +3665,11 @@
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="72">
-        <v>0</v>
-      </c>
-      <c r="F37" s="72">
-        <v>0</v>
-      </c>
-      <c r="G37" s="72">
-        <v>0</v>
-      </c>
-      <c r="H37" s="72">
-        <v>0</v>
-      </c>
-      <c r="I37" s="72">
-        <v>0</v>
-      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="41"/>
       <c r="K37" s="38" t="s">
         <v>20</v>
@@ -4556,21 +3686,11 @@
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="72">
-        <v>0</v>
-      </c>
-      <c r="F38" s="72">
-        <v>0</v>
-      </c>
-      <c r="G38" s="72">
-        <v>0</v>
-      </c>
-      <c r="H38" s="72">
-        <v>0</v>
-      </c>
-      <c r="I38" s="72">
-        <v>0</v>
-      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="41"/>
       <c r="K38" s="38" t="s">
         <v>20</v>
@@ -4587,21 +3707,11 @@
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="72">
-        <v>0</v>
-      </c>
-      <c r="F39" s="72">
-        <v>0</v>
-      </c>
-      <c r="G39" s="72">
-        <v>0</v>
-      </c>
-      <c r="H39" s="72">
-        <v>0</v>
-      </c>
-      <c r="I39" s="72">
-        <v>0</v>
-      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="40"/>
       <c r="K39" s="38" t="s">
         <v>20</v>
@@ -4618,21 +3728,11 @@
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="72">
-        <v>0</v>
-      </c>
-      <c r="F40" s="72">
-        <v>0</v>
-      </c>
-      <c r="G40" s="72">
-        <v>0</v>
-      </c>
-      <c r="H40" s="72">
-        <v>0</v>
-      </c>
-      <c r="I40" s="72">
-        <v>0</v>
-      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="40"/>
       <c r="K40" s="38" t="s">
         <v>20</v>
@@ -4649,21 +3749,11 @@
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="72">
-        <v>0</v>
-      </c>
-      <c r="F41" s="72">
-        <v>0</v>
-      </c>
-      <c r="G41" s="72">
-        <v>0</v>
-      </c>
-      <c r="H41" s="72">
-        <v>0</v>
-      </c>
-      <c r="I41" s="72">
-        <v>0</v>
-      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="40"/>
       <c r="K41" s="38" t="s">
         <v>20</v>
@@ -4680,21 +3770,11 @@
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="72">
-        <v>0</v>
-      </c>
-      <c r="F42" s="72">
-        <v>0</v>
-      </c>
-      <c r="G42" s="72">
-        <v>0</v>
-      </c>
-      <c r="H42" s="72">
-        <v>0</v>
-      </c>
-      <c r="I42" s="72">
-        <v>0</v>
-      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="41"/>
       <c r="K42" s="38" t="s">
         <v>20</v>
@@ -4711,21 +3791,11 @@
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="72">
-        <v>0</v>
-      </c>
-      <c r="F43" s="72">
-        <v>0</v>
-      </c>
-      <c r="G43" s="72">
-        <v>0</v>
-      </c>
-      <c r="H43" s="72">
-        <v>0</v>
-      </c>
-      <c r="I43" s="72">
-        <v>0</v>
-      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="40"/>
       <c r="K43" s="38" t="s">
         <v>20</v>
@@ -4742,21 +3812,11 @@
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="72">
-        <v>0</v>
-      </c>
-      <c r="F44" s="72">
-        <v>0</v>
-      </c>
-      <c r="G44" s="72">
-        <v>0</v>
-      </c>
-      <c r="H44" s="72">
-        <v>0</v>
-      </c>
-      <c r="I44" s="72">
-        <v>0</v>
-      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="41"/>
       <c r="K44" s="38" t="s">
         <v>20</v>
@@ -4773,21 +3833,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="72">
-        <v>0</v>
-      </c>
-      <c r="F45" s="72">
-        <v>0</v>
-      </c>
-      <c r="G45" s="72">
-        <v>0</v>
-      </c>
-      <c r="H45" s="72">
-        <v>0</v>
-      </c>
-      <c r="I45" s="72">
-        <v>0</v>
-      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="40"/>
       <c r="K45" s="38" t="s">
         <v>20</v>
@@ -4804,21 +3854,11 @@
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="72">
-        <v>0</v>
-      </c>
-      <c r="F46" s="72">
-        <v>0</v>
-      </c>
-      <c r="G46" s="72">
-        <v>0</v>
-      </c>
-      <c r="H46" s="72">
-        <v>0</v>
-      </c>
-      <c r="I46" s="72">
-        <v>0</v>
-      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="41"/>
       <c r="K46" s="38" t="s">
         <v>20</v>
@@ -4835,21 +3875,11 @@
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="72">
-        <v>0</v>
-      </c>
-      <c r="F47" s="72">
-        <v>0</v>
-      </c>
-      <c r="G47" s="72">
-        <v>0</v>
-      </c>
-      <c r="H47" s="72">
-        <v>0</v>
-      </c>
-      <c r="I47" s="72">
-        <v>0</v>
-      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="41"/>
       <c r="K47" s="38" t="s">
         <v>20</v>
@@ -4866,21 +3896,11 @@
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="72">
-        <v>0</v>
-      </c>
-      <c r="F48" s="72">
-        <v>0</v>
-      </c>
-      <c r="G48" s="72">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72">
-        <v>0</v>
-      </c>
-      <c r="I48" s="72">
-        <v>0</v>
-      </c>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="41"/>
       <c r="K48" s="38" t="s">
         <v>20</v>
@@ -4897,21 +3917,11 @@
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="72">
-        <v>0</v>
-      </c>
-      <c r="F49" s="72">
-        <v>0</v>
-      </c>
-      <c r="G49" s="72">
-        <v>0</v>
-      </c>
-      <c r="H49" s="72">
-        <v>0</v>
-      </c>
-      <c r="I49" s="72">
-        <v>0</v>
-      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="41"/>
       <c r="K49" s="38" t="s">
         <v>20</v>
@@ -4928,21 +3938,11 @@
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="72">
-        <v>0</v>
-      </c>
-      <c r="F50" s="72">
-        <v>0</v>
-      </c>
-      <c r="G50" s="72">
-        <v>0</v>
-      </c>
-      <c r="H50" s="72">
-        <v>0</v>
-      </c>
-      <c r="I50" s="72">
-        <v>0</v>
-      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="41"/>
       <c r="K50" s="38" t="s">
         <v>20</v>
@@ -4959,21 +3959,11 @@
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="72">
-        <v>0</v>
-      </c>
-      <c r="F51" s="72">
-        <v>0</v>
-      </c>
-      <c r="G51" s="72">
-        <v>0</v>
-      </c>
-      <c r="H51" s="72">
-        <v>0</v>
-      </c>
-      <c r="I51" s="72">
-        <v>0</v>
-      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="41"/>
       <c r="K51" s="38" t="s">
         <v>20</v>
@@ -4990,21 +3980,11 @@
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="72">
-        <v>0</v>
-      </c>
-      <c r="F52" s="72">
-        <v>0</v>
-      </c>
-      <c r="G52" s="72">
-        <v>0</v>
-      </c>
-      <c r="H52" s="72">
-        <v>0</v>
-      </c>
-      <c r="I52" s="72">
-        <v>0</v>
-      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="41"/>
       <c r="K52" s="38" t="s">
         <v>20</v>
@@ -5021,21 +4001,11 @@
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="72">
-        <v>0</v>
-      </c>
-      <c r="F53" s="72">
-        <v>0</v>
-      </c>
-      <c r="G53" s="72">
-        <v>0</v>
-      </c>
-      <c r="H53" s="72">
-        <v>0</v>
-      </c>
-      <c r="I53" s="72">
-        <v>0</v>
-      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="41"/>
       <c r="K53" s="38" t="s">
         <v>20</v>
@@ -5052,21 +4022,11 @@
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="72">
-        <v>0</v>
-      </c>
-      <c r="F54" s="72">
-        <v>0</v>
-      </c>
-      <c r="G54" s="72">
-        <v>0</v>
-      </c>
-      <c r="H54" s="72">
-        <v>0</v>
-      </c>
-      <c r="I54" s="72">
-        <v>0</v>
-      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="41"/>
       <c r="K54" s="38" t="s">
         <v>20</v>
@@ -5083,21 +4043,11 @@
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="72">
-        <v>0</v>
-      </c>
-      <c r="F55" s="72">
-        <v>0</v>
-      </c>
-      <c r="G55" s="72">
-        <v>0</v>
-      </c>
-      <c r="H55" s="72">
-        <v>0</v>
-      </c>
-      <c r="I55" s="72">
-        <v>0</v>
-      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="41"/>
       <c r="K55" s="38" t="s">
         <v>20</v>
@@ -5114,21 +4064,11 @@
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="72">
-        <v>0</v>
-      </c>
-      <c r="F56" s="72">
-        <v>0</v>
-      </c>
-      <c r="G56" s="72">
-        <v>0</v>
-      </c>
-      <c r="H56" s="72">
-        <v>0</v>
-      </c>
-      <c r="I56" s="72">
-        <v>0</v>
-      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="41"/>
       <c r="K56" s="38" t="s">
         <v>20</v>
@@ -5145,21 +4085,11 @@
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="72">
-        <v>0</v>
-      </c>
-      <c r="F57" s="72">
-        <v>0</v>
-      </c>
-      <c r="G57" s="72">
-        <v>0</v>
-      </c>
-      <c r="H57" s="72">
-        <v>0</v>
-      </c>
-      <c r="I57" s="72">
-        <v>0</v>
-      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="41"/>
       <c r="K57" s="38" t="s">
         <v>20</v>
@@ -5176,21 +4106,11 @@
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="72">
-        <v>0</v>
-      </c>
-      <c r="F58" s="72">
-        <v>0</v>
-      </c>
-      <c r="G58" s="72">
-        <v>0</v>
-      </c>
-      <c r="H58" s="72">
-        <v>0</v>
-      </c>
-      <c r="I58" s="72">
-        <v>0</v>
-      </c>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="41"/>
       <c r="K58" s="38" t="s">
         <v>20</v>
@@ -5207,21 +4127,11 @@
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="72">
-        <v>0</v>
-      </c>
-      <c r="F59" s="72">
-        <v>0</v>
-      </c>
-      <c r="G59" s="72">
-        <v>0</v>
-      </c>
-      <c r="H59" s="72">
-        <v>0</v>
-      </c>
-      <c r="I59" s="72">
-        <v>0</v>
-      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="41"/>
       <c r="K59" s="38" t="s">
         <v>20</v>
@@ -5238,21 +4148,11 @@
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="72">
-        <v>0</v>
-      </c>
-      <c r="F60" s="72">
-        <v>0</v>
-      </c>
-      <c r="G60" s="72">
-        <v>0</v>
-      </c>
-      <c r="H60" s="72">
-        <v>0</v>
-      </c>
-      <c r="I60" s="72">
-        <v>0</v>
-      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="41"/>
       <c r="K60" s="38" t="s">
         <v>20</v>
@@ -5269,21 +4169,11 @@
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="72">
-        <v>0</v>
-      </c>
-      <c r="F61" s="72">
-        <v>0</v>
-      </c>
-      <c r="G61" s="72">
-        <v>0</v>
-      </c>
-      <c r="H61" s="72">
-        <v>0</v>
-      </c>
-      <c r="I61" s="72">
-        <v>0</v>
-      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
       <c r="J61" s="41"/>
       <c r="K61" s="38" t="s">
         <v>20</v>
@@ -5300,21 +4190,11 @@
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="72">
-        <v>0</v>
-      </c>
-      <c r="F62" s="72">
-        <v>0</v>
-      </c>
-      <c r="G62" s="72">
-        <v>0</v>
-      </c>
-      <c r="H62" s="72">
-        <v>0</v>
-      </c>
-      <c r="I62" s="72">
-        <v>0</v>
-      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="41"/>
       <c r="K62" s="38" t="s">
         <v>20</v>
@@ -5331,21 +4211,11 @@
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="72">
-        <v>0</v>
-      </c>
-      <c r="F63" s="72">
-        <v>0</v>
-      </c>
-      <c r="G63" s="72">
-        <v>0</v>
-      </c>
-      <c r="H63" s="72">
-        <v>0</v>
-      </c>
-      <c r="I63" s="72">
-        <v>0</v>
-      </c>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="41"/>
       <c r="K63" s="38" t="s">
         <v>20</v>
@@ -5362,21 +4232,11 @@
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
-      <c r="E64" s="72">
-        <v>0</v>
-      </c>
-      <c r="F64" s="72">
-        <v>0</v>
-      </c>
-      <c r="G64" s="72">
-        <v>0</v>
-      </c>
-      <c r="H64" s="72">
-        <v>0</v>
-      </c>
-      <c r="I64" s="72">
-        <v>0</v>
-      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="41"/>
       <c r="K64" s="38" t="s">
         <v>20</v>
@@ -5393,21 +4253,11 @@
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
-      <c r="E65" s="72">
-        <v>0</v>
-      </c>
-      <c r="F65" s="72">
-        <v>0</v>
-      </c>
-      <c r="G65" s="72">
-        <v>0</v>
-      </c>
-      <c r="H65" s="72">
-        <v>0</v>
-      </c>
-      <c r="I65" s="72">
-        <v>0</v>
-      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="41"/>
       <c r="K65" s="38" t="s">
         <v>20</v>
@@ -5424,21 +4274,11 @@
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="72">
-        <v>0</v>
-      </c>
-      <c r="F66" s="72">
-        <v>0</v>
-      </c>
-      <c r="G66" s="72">
-        <v>0</v>
-      </c>
-      <c r="H66" s="72">
-        <v>0</v>
-      </c>
-      <c r="I66" s="72">
-        <v>0</v>
-      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="41"/>
       <c r="K66" s="38" t="s">
         <v>20</v>
@@ -5455,21 +4295,11 @@
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="72">
-        <v>0</v>
-      </c>
-      <c r="F67" s="72">
-        <v>0</v>
-      </c>
-      <c r="G67" s="72">
-        <v>0</v>
-      </c>
-      <c r="H67" s="72">
-        <v>0</v>
-      </c>
-      <c r="I67" s="72">
-        <v>0</v>
-      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="41"/>
       <c r="K67" s="38" t="s">
         <v>20</v>
@@ -5486,21 +4316,11 @@
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="72">
-        <v>0</v>
-      </c>
-      <c r="F68" s="72">
-        <v>0</v>
-      </c>
-      <c r="G68" s="72">
-        <v>0</v>
-      </c>
-      <c r="H68" s="72">
-        <v>0</v>
-      </c>
-      <c r="I68" s="72">
-        <v>0</v>
-      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="41"/>
       <c r="K68" s="38" t="s">
         <v>20</v>
@@ -5517,21 +4337,11 @@
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="72">
-        <v>0</v>
-      </c>
-      <c r="F69" s="72">
-        <v>0</v>
-      </c>
-      <c r="G69" s="72">
-        <v>0</v>
-      </c>
-      <c r="H69" s="72">
-        <v>0</v>
-      </c>
-      <c r="I69" s="72">
-        <v>0</v>
-      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
       <c r="J69" s="41"/>
       <c r="K69" s="38" t="s">
         <v>20</v>
@@ -5548,21 +4358,11 @@
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="72">
-        <v>0</v>
-      </c>
-      <c r="F70" s="72">
-        <v>0</v>
-      </c>
-      <c r="G70" s="72">
-        <v>0</v>
-      </c>
-      <c r="H70" s="72">
-        <v>0</v>
-      </c>
-      <c r="I70" s="72">
-        <v>0</v>
-      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="43"/>
       <c r="K70" s="44" t="s">
         <v>20</v>
@@ -5573,11 +4373,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="26"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -5608,26 +4408,28 @@
       <c r="A74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
-      <c r="I74" s="48" t="s">
+      <c r="I74" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A9:A10"/>
@@ -5638,13 +4440,11 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I74:L74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>

--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D0BEE-D623-4D64-8C57-D79D1A3D362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E2F0F-52B3-4C08-B9C2-E10E0F6F6572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="8" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="29">
   <si>
     <t>UNIVERSIDAD CIUDADANA DE NUEVO LEÓN</t>
   </si>
@@ -587,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -737,10 +738,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -758,67 +827,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,6 +1063,129 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A15243-4471-4DCF-BA0F-32D55FF9ABF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="47625"/>
+          <a:ext cx="1245454" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55009FCD-3507-409D-8AB5-656F89E5CA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="40005"/>
+          <a:ext cx="923925" cy="560728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111979</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33F4992-04E7-43E9-8E2F-8DEA8DFF1F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,20 +1532,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1423,9 +1554,9 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="32"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1435,20 +1566,20 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,110 +1589,110 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="53"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="69" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="71" t="s">
+      <c r="K9" s="69"/>
+      <c r="L9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="72"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -2836,11 +2967,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="26"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -2871,21 +3002,28 @@
       <c r="A74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="31"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="56" t="s">
+      <c r="I74" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -2901,13 +3039,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -2938,20 +3069,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2960,9 +3091,9 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="33"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2972,20 +3103,20 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,110 +3126,110 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="53"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="69" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="71" t="s">
+      <c r="K9" s="69"/>
+      <c r="L9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="72"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -3114,7 +3245,7 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -3135,7 +3266,7 @@
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
@@ -3156,7 +3287,7 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -3177,7 +3308,7 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -3198,7 +3329,7 @@
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -3219,7 +3350,7 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -3240,7 +3371,7 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -3261,7 +3392,7 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -3282,7 +3413,7 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -3303,7 +3434,7 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -3324,7 +3455,7 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -3345,7 +3476,7 @@
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -3366,7 +3497,7 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -3387,7 +3518,7 @@
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
@@ -3408,7 +3539,7 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
@@ -3429,7 +3560,7 @@
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
@@ -3450,7 +3581,7 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
@@ -3471,7 +3602,7 @@
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
@@ -3492,7 +3623,7 @@
     </row>
     <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
@@ -3513,7 +3644,7 @@
     </row>
     <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -3534,7 +3665,7 @@
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -3555,7 +3686,7 @@
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -3576,7 +3707,7 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -3597,7 +3728,7 @@
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -3618,7 +3749,7 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -3639,7 +3770,7 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -3660,7 +3791,7 @@
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -3681,7 +3812,7 @@
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -3702,7 +3833,7 @@
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -3723,7 +3854,7 @@
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -3744,7 +3875,7 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -3765,7 +3896,7 @@
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -3786,7 +3917,7 @@
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
@@ -3807,7 +3938,7 @@
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
@@ -3828,7 +3959,7 @@
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
@@ -3849,7 +3980,7 @@
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -3870,7 +4001,7 @@
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -3891,7 +4022,7 @@
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -3912,7 +4043,7 @@
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -3933,7 +4064,7 @@
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -3954,7 +4085,7 @@
     </row>
     <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -3975,7 +4106,7 @@
     </row>
     <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -3996,7 +4127,7 @@
     </row>
     <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -4017,7 +4148,7 @@
     </row>
     <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -4038,7 +4169,7 @@
     </row>
     <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -4059,7 +4190,7 @@
     </row>
     <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -4080,7 +4211,7 @@
     </row>
     <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -4101,7 +4232,7 @@
     </row>
     <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -4122,7 +4253,7 @@
     </row>
     <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -4143,7 +4274,7 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -4164,7 +4295,7 @@
     </row>
     <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -4185,7 +4316,7 @@
     </row>
     <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -4206,7 +4337,7 @@
     </row>
     <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -4227,7 +4358,7 @@
     </row>
     <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -4248,7 +4379,7 @@
     </row>
     <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -4269,7 +4400,7 @@
     </row>
     <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -4290,7 +4421,7 @@
     </row>
     <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -4311,7 +4442,7 @@
     </row>
     <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -4332,7 +4463,7 @@
     </row>
     <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -4353,7 +4484,7 @@
     </row>
     <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -4373,11 +4504,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="26"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -4408,28 +4539,24 @@
       <c r="A74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
-      <c r="I74" s="56" t="s">
+      <c r="I74" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I74:L74"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A9:A10"/>
@@ -4442,9 +4569,1550 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88BD328-BDAE-4815-9870-0AAEAFC286E2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+    </row>
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>121</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>122</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>123</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>124</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>125</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>126</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>127</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>128</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>129</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="39"/>
+      <c r="M19" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>130</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>131</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="39"/>
+      <c r="M21" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>132</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="39"/>
+      <c r="M22" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>133</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>134</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="M24" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>135</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>136</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="39"/>
+      <c r="M26" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>137</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="39"/>
+      <c r="M27" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>138</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="M28" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>139</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>140</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="39"/>
+      <c r="M30" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>141</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="42"/>
+      <c r="M31" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>142</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="39"/>
+      <c r="M32" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>143</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="39"/>
+      <c r="M33" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>144</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>145</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="39"/>
+      <c r="M35" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>146</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>147</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="42"/>
+      <c r="M37" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>148</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="42"/>
+      <c r="M38" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>149</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="39"/>
+      <c r="M39" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>150</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="39"/>
+      <c r="M40" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>151</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="39"/>
+      <c r="M41" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>152</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="42"/>
+      <c r="M42" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>153</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="39"/>
+      <c r="M43" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>154</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="42"/>
+      <c r="M44" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>155</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="39"/>
+      <c r="M45" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>156</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>157</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="39"/>
+      <c r="M47" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>158</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="39"/>
+      <c r="M48" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>159</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="39"/>
+      <c r="M49" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>160</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="39"/>
+      <c r="M50" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>161</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="39"/>
+      <c r="M51" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>162</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>163</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="39"/>
+      <c r="M53" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>164</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="39"/>
+      <c r="M54" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>165</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="39"/>
+      <c r="M55" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>166</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="M56" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>167</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="39"/>
+      <c r="M57" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>168</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="39"/>
+      <c r="M58" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>169</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="39"/>
+      <c r="M59" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>170</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="39"/>
+      <c r="M60" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>171</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="39"/>
+      <c r="M61" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>172</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="39"/>
+      <c r="M62" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>173</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="39"/>
+      <c r="M63" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>174</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="39"/>
+      <c r="M64" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>175</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="39"/>
+      <c r="M65" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>176</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="39"/>
+      <c r="M66" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>177</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="39"/>
+      <c r="M67" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>178</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="39"/>
+      <c r="M68" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>179</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="39"/>
+      <c r="M69" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>180</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="45"/>
+      <c r="M70" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>

--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15AD8B-EC35-4296-B461-51BC28F70D43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC89C8-9741-49D3-98C6-51F7A3EE7B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="8" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="9" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="29">
   <si>
     <t>UNIVERSIDAD CIUDADANA DE NUEVO LEÓN</t>
   </si>
@@ -595,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -728,10 +729,160 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -748,149 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1279,6 +1287,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08F8E80-A62C-4668-9402-FD483ACBBA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="40005"/>
+          <a:ext cx="924657" cy="560728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111979</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C764FE99-B69E-4167-AB0F-2E3C1E65B668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="47625"/>
+          <a:ext cx="1245454" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1585,43 +1716,43 @@
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="13" width="7.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="26"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1630,134 +1761,134 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="65" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="67" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="68"/>
-    </row>
-    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1771,7 +1902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -1792,7 +1923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -1813,7 +1944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>3</v>
       </c>
@@ -1834,7 +1965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>4</v>
       </c>
@@ -1855,7 +1986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -1876,7 +2007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -1897,7 +2028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>7</v>
       </c>
@@ -1918,7 +2049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>8</v>
       </c>
@@ -1939,7 +2070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>9</v>
       </c>
@@ -1960,7 +2091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -1981,7 +2112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>11</v>
       </c>
@@ -2002,7 +2133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>12</v>
       </c>
@@ -2023,7 +2154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>13</v>
       </c>
@@ -2044,13 +2175,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -2065,13 +2196,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>15</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -2086,13 +2217,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>16</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -2107,13 +2238,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>17</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -2128,13 +2259,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>18</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -2149,13 +2280,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>19</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -2170,13 +2301,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>20</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
@@ -2191,13 +2322,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>21</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
@@ -2212,13 +2343,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>22</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -2233,13 +2364,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>23</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -2254,13 +2385,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>24</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -2275,13 +2406,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>25</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -2296,13 +2427,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>26</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
@@ -2317,13 +2448,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>27</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -2338,13 +2469,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>28</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -2359,13 +2490,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>29</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
@@ -2380,13 +2511,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>30</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
@@ -2401,13 +2532,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>31</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
@@ -2422,13 +2553,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>32</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
@@ -2443,13 +2574,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>33</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
@@ -2464,13 +2595,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>34</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -2485,13 +2616,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>35</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -2506,13 +2637,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>36</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -2527,13 +2658,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>37</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -2548,13 +2679,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>38</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -2569,13 +2700,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>39</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -2590,13 +2721,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>40</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -2611,13 +2742,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>41</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -2632,13 +2763,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>42</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -2653,13 +2784,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>43</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -2674,13 +2805,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>44</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
@@ -2695,13 +2826,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>45</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="40"/>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
@@ -2716,13 +2847,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>46</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
@@ -2737,13 +2868,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>47</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="40"/>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
@@ -2758,13 +2889,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>48</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -2779,13 +2910,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>49</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
@@ -2800,13 +2931,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>50</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
@@ -2821,13 +2952,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>51</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="40"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
@@ -2842,13 +2973,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>52</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="40"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
@@ -2863,13 +2994,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>53</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="40"/>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
@@ -2884,13 +3015,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>54</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
@@ -2905,13 +3036,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>55</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="40"/>
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
@@ -2926,13 +3057,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>56</v>
       </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
@@ -2947,13 +3078,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>57</v>
       </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
@@ -2968,13 +3099,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>58</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
@@ -2989,13 +3120,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>59</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
@@ -3010,13 +3141,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>60</v>
       </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
@@ -3031,12 +3162,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="20"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -3048,7 +3179,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="22" t="s">
         <v>22</v>
       </c>
@@ -3057,31 +3188,38 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="25"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="52" t="s">
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -3093,6 +3231,1536 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78A4277-2DF0-4A33-BB26-CEE30185EE34}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>61</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>62</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="60"/>
+      <c r="M12" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>63</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="60"/>
+      <c r="M13" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>64</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>65</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="60"/>
+      <c r="M15" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>66</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>67</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="60"/>
+      <c r="M17" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>68</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="60"/>
+      <c r="M18" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>69</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>70</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>71</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="60"/>
+      <c r="M21" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>72</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
+        <v>73</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="60"/>
+      <c r="M23" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>74</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="60"/>
+      <c r="M24" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
+        <v>75</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="60"/>
+      <c r="M25" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
+        <v>76</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="60"/>
+      <c r="M26" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
+        <v>77</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="60"/>
+      <c r="M27" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
+        <v>78</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="60"/>
+      <c r="M28" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51">
+        <v>79</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="60"/>
+      <c r="M29" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>80</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51">
+        <v>81</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="61"/>
+      <c r="M31" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>82</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="60"/>
+      <c r="M32" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51">
+        <v>83</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="60"/>
+      <c r="M33" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
+        <v>84</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="61"/>
+      <c r="M34" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51">
+        <v>85</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="60"/>
+      <c r="M35" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
+        <v>86</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51">
+        <v>87</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
+        <v>88</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="61"/>
+      <c r="M38" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51">
+        <v>89</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="60"/>
+      <c r="M39" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
+        <v>90</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="60"/>
+      <c r="M40" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>91</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="60"/>
+      <c r="M41" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <v>92</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="61"/>
+      <c r="M42" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>93</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="60"/>
+      <c r="M43" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
+        <v>94</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="61"/>
+      <c r="M44" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51">
+        <v>95</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="60"/>
+      <c r="M45" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <v>96</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="60"/>
+      <c r="M46" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51">
+        <v>97</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="60"/>
+      <c r="M47" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57">
+        <v>98</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="60"/>
+      <c r="M48" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51">
+        <v>99</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="60"/>
+      <c r="M49" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57">
+        <v>100</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="60"/>
+      <c r="M50" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
+        <v>101</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="60"/>
+      <c r="M51" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <v>102</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="60"/>
+      <c r="M52" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51">
+        <v>103</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="60"/>
+      <c r="M53" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57">
+        <v>104</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="60"/>
+      <c r="M54" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51">
+        <v>105</v>
+      </c>
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="60"/>
+      <c r="M55" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57">
+        <v>106</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="60"/>
+      <c r="M56" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51">
+        <v>107</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="60"/>
+      <c r="M57" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57">
+        <v>108</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="60"/>
+      <c r="M58" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51">
+        <v>109</v>
+      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="60"/>
+      <c r="M59" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57">
+        <v>110</v>
+      </c>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="60"/>
+      <c r="M60" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51">
+        <v>111</v>
+      </c>
+      <c r="B61" s="47"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="60"/>
+      <c r="M61" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57">
+        <v>112</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="60"/>
+      <c r="M62" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51">
+        <v>113</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="60"/>
+      <c r="M63" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57">
+        <v>114</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="60"/>
+      <c r="M64" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51">
+        <v>115</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="60"/>
+      <c r="M65" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57">
+        <v>116</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="60"/>
+      <c r="M66" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51">
+        <v>117</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="60"/>
+      <c r="M67" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="57">
+        <v>118</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="60"/>
+      <c r="M68" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="51">
+        <v>119</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="60"/>
+      <c r="M69" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="57">
+        <v>120</v>
+      </c>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="65"/>
+      <c r="M70" s="64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+    </row>
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
@@ -3111,8 +4779,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78A4277-2DF0-4A33-BB26-CEE30185EE34}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88BD328-BDAE-4815-9870-0AAEAFC286E2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3122,44 +4790,44 @@
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="13" width="7.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
@@ -3167,134 +4835,134 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="65" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="67" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="68"/>
-    </row>
-    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -3308,1272 +4976,1272 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75">
-        <v>61</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81">
-        <v>62</v>
-      </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="84"/>
-      <c r="M12" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75">
-        <v>63</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81">
-        <v>64</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75">
-        <v>65</v>
-      </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81">
-        <v>66</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75">
-        <v>67</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="84"/>
-      <c r="M17" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81">
-        <v>68</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75">
-        <v>69</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81">
-        <v>70</v>
-      </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75">
-        <v>71</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="84"/>
-      <c r="M21" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81">
-        <v>72</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="84"/>
-      <c r="M22" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75">
-        <v>73</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81">
-        <v>74</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="84"/>
-      <c r="M24" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75">
-        <v>75</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81">
-        <v>76</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75">
-        <v>77</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="84"/>
-      <c r="M27" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81">
-        <v>78</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="84"/>
-      <c r="M28" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75">
-        <v>79</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="84"/>
-      <c r="M29" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81">
-        <v>80</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="84"/>
-      <c r="M30" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75">
-        <v>81</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="85"/>
-      <c r="M31" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81">
-        <v>82</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="84"/>
-      <c r="M32" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75">
-        <v>83</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="84"/>
-      <c r="M33" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81">
-        <v>84</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="85"/>
-      <c r="M34" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75">
-        <v>85</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="84"/>
-      <c r="M35" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81">
-        <v>86</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="85"/>
-      <c r="M36" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="75">
-        <v>87</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="85"/>
-      <c r="M37" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="81">
-        <v>88</v>
-      </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75">
-        <v>89</v>
-      </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="84"/>
-      <c r="M39" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81">
-        <v>90</v>
-      </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="84"/>
-      <c r="M40" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75">
-        <v>91</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="84"/>
-      <c r="M41" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81">
-        <v>92</v>
-      </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75">
-        <v>93</v>
-      </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="84"/>
-      <c r="M43" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="81">
-        <v>94</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="85"/>
-      <c r="M44" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75">
-        <v>95</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="84"/>
-      <c r="M45" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81">
-        <v>96</v>
-      </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="84"/>
-      <c r="M46" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75">
-        <v>97</v>
-      </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="84"/>
-      <c r="M47" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81">
-        <v>98</v>
-      </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="84"/>
-      <c r="M48" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75">
-        <v>99</v>
-      </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="84"/>
-      <c r="M49" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="81">
-        <v>100</v>
-      </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="84"/>
-      <c r="M50" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="75">
-        <v>101</v>
-      </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="84"/>
-      <c r="M51" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81">
-        <v>102</v>
-      </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="84"/>
-      <c r="M52" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="75">
-        <v>103</v>
-      </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="84"/>
-      <c r="M53" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81">
-        <v>104</v>
-      </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="84"/>
-      <c r="M54" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="75">
-        <v>105</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" s="84"/>
-      <c r="M55" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="81">
-        <v>106</v>
-      </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75">
-        <v>107</v>
-      </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="84"/>
-      <c r="M57" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="81">
-        <v>108</v>
-      </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="84"/>
-      <c r="M58" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="75">
-        <v>109</v>
-      </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="84"/>
-      <c r="M59" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="81">
-        <v>110</v>
-      </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="84"/>
-      <c r="M60" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="75">
-        <v>111</v>
-      </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="84"/>
-      <c r="M61" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="81">
-        <v>112</v>
-      </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="84"/>
-      <c r="M62" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="75">
-        <v>113</v>
-      </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="84"/>
-      <c r="M63" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="81">
-        <v>114</v>
-      </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" s="84"/>
-      <c r="M64" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="75">
-        <v>115</v>
-      </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="84"/>
-      <c r="M65" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="81">
-        <v>116</v>
-      </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="84"/>
-      <c r="M66" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="75">
-        <v>117</v>
-      </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="84"/>
-      <c r="M67" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81">
-        <v>118</v>
-      </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" s="84"/>
-      <c r="M68" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="75">
-        <v>119</v>
-      </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="84"/>
-      <c r="M69" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="81">
-        <v>120</v>
-      </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="87"/>
-      <c r="K70" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="89"/>
-      <c r="M70" s="88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>121</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>122</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>123</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>124</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>125</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>126</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>127</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>128</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>129</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>130</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>131</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>132</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
+        <v>133</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>134</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
+        <v>135</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
+        <v>136</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
+        <v>137</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
+        <v>138</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51">
+        <v>139</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="33"/>
+      <c r="M29" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>140</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51">
+        <v>141</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="36"/>
+      <c r="M31" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>142</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="33"/>
+      <c r="M32" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51">
+        <v>143</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="33"/>
+      <c r="M33" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
+        <v>144</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="36"/>
+      <c r="M34" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51">
+        <v>145</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="33"/>
+      <c r="M35" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
+        <v>146</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="36"/>
+      <c r="M36" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51">
+        <v>147</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="36"/>
+      <c r="M37" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
+        <v>148</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="36"/>
+      <c r="M38" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51">
+        <v>149</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="33"/>
+      <c r="M39" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
+        <v>150</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="33"/>
+      <c r="M40" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>151</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="33"/>
+      <c r="M41" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <v>152</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="36"/>
+      <c r="M42" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>153</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="33"/>
+      <c r="M43" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
+        <v>154</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="36"/>
+      <c r="M44" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51">
+        <v>155</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="33"/>
+      <c r="M45" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <v>156</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="33"/>
+      <c r="M46" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51">
+        <v>157</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="33"/>
+      <c r="M47" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57">
+        <v>158</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="33"/>
+      <c r="M48" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51">
+        <v>159</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="33"/>
+      <c r="M49" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57">
+        <v>160</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="33"/>
+      <c r="M50" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
+        <v>161</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="33"/>
+      <c r="M51" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <v>162</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51">
+        <v>163</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57">
+        <v>164</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51">
+        <v>165</v>
+      </c>
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57">
+        <v>166</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="33"/>
+      <c r="M56" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51">
+        <v>167</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="33"/>
+      <c r="M57" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57">
+        <v>168</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="33"/>
+      <c r="M58" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51">
+        <v>169</v>
+      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="33"/>
+      <c r="M59" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57">
+        <v>170</v>
+      </c>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="33"/>
+      <c r="M60" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51">
+        <v>171</v>
+      </c>
+      <c r="B61" s="47"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="33"/>
+      <c r="M61" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57">
+        <v>172</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="33"/>
+      <c r="M62" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51">
+        <v>173</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="33"/>
+      <c r="M63" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57">
+        <v>174</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="33"/>
+      <c r="M64" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51">
+        <v>175</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="33"/>
+      <c r="M65" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57">
+        <v>176</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="33"/>
+      <c r="M66" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51">
+        <v>177</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="33"/>
+      <c r="M67" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="57">
+        <v>178</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="33"/>
+      <c r="M68" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="51">
+        <v>179</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="33"/>
+      <c r="M69" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="57">
+        <v>180</v>
+      </c>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="39"/>
+      <c r="M70" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="20"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -4585,7 +6253,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="22" t="s">
         <v>22</v>
       </c>
@@ -4594,38 +6262,31 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="52" t="s">
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -4641,6 +6302,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -4648,8 +6316,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88BD328-BDAE-4815-9870-0AAEAFC286E2}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAC3E8C-D9B3-42CD-A38B-ACC42A95AAAF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4659,44 +6327,44 @@
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="13" width="7.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="41"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
@@ -4704,134 +6372,134 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="65" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="67" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="68"/>
-    </row>
-    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
@@ -4845,13 +6513,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75">
-        <v>121</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>181</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -4866,13 +6534,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81">
-        <v>122</v>
-      </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>182</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -4887,13 +6555,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75">
-        <v>123</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>183</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -4908,13 +6576,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81">
-        <v>124</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>184</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -4929,13 +6597,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75">
-        <v>125</v>
-      </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>185</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -4950,13 +6618,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81">
-        <v>126</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>186</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -4971,13 +6639,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75">
-        <v>127</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>187</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -4992,13 +6660,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81">
-        <v>128</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>188</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -5013,13 +6681,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75">
-        <v>129</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>189</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -5034,13 +6702,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81">
-        <v>130</v>
-      </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>190</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -5055,13 +6723,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75">
-        <v>131</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>191</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -5076,13 +6744,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81">
-        <v>132</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>192</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -5097,13 +6765,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75">
-        <v>133</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
+        <v>193</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -5118,13 +6786,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81">
-        <v>134</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>194</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -5139,13 +6807,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75">
-        <v>135</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
+        <v>195</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -5160,13 +6828,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81">
-        <v>136</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
+        <v>196</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5181,13 +6849,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75">
-        <v>137</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
+        <v>197</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -5202,13 +6870,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81">
-        <v>138</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
+        <v>198</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5223,13 +6891,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75">
-        <v>139</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51">
+        <v>199</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -5244,13 +6912,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81">
-        <v>140</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>200</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
@@ -5265,13 +6933,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75">
-        <v>141</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51">
+        <v>201</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
@@ -5286,13 +6954,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81">
-        <v>142</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>202</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -5307,13 +6975,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75">
-        <v>143</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51">
+        <v>203</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -5328,13 +6996,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81">
-        <v>144</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
+        <v>204</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -5349,13 +7017,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75">
-        <v>145</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
+    <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51">
+        <v>205</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -5370,13 +7038,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81">
-        <v>146</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
+    <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
+        <v>206</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
@@ -5391,13 +7059,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="75">
-        <v>147</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51">
+        <v>207</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -5412,13 +7080,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="81">
-        <v>148</v>
-      </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
+    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
+        <v>208</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -5433,13 +7101,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75">
-        <v>149</v>
-      </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
+    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51">
+        <v>209</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
@@ -5454,13 +7122,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81">
-        <v>150</v>
-      </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
+        <v>210</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
@@ -5475,13 +7143,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75">
-        <v>151</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
+    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>211</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
@@ -5496,13 +7164,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81">
-        <v>152</v>
-      </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <v>212</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
@@ -5517,13 +7185,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75">
-        <v>153</v>
-      </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>213</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
@@ -5538,13 +7206,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="81">
-        <v>154</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
+        <v>214</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -5559,13 +7227,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75">
-        <v>155</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51">
+        <v>215</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -5580,13 +7248,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81">
-        <v>156</v>
-      </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <v>216</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -5601,13 +7269,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75">
-        <v>157</v>
-      </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51">
+        <v>217</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -5622,13 +7290,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81">
-        <v>158</v>
-      </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57">
+        <v>218</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -5643,13 +7311,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75">
-        <v>159</v>
-      </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51">
+        <v>219</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -5664,13 +7332,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="81">
-        <v>160</v>
-      </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57">
+        <v>220</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -5685,13 +7353,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="75">
-        <v>161</v>
-      </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
+        <v>221</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -5706,13 +7374,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81">
-        <v>162</v>
-      </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <v>222</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -5727,13 +7395,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="75">
-        <v>163</v>
-      </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51">
+        <v>223</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -5748,13 +7416,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81">
-        <v>164</v>
-      </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
+    <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57">
+        <v>224</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
@@ -5769,13 +7437,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="75">
-        <v>165</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51">
+        <v>225</v>
+      </c>
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="40"/>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
@@ -5790,13 +7458,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="81">
-        <v>166</v>
-      </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
+    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57">
+        <v>226</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
@@ -5811,13 +7479,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75">
-        <v>167</v>
-      </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51">
+        <v>227</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="40"/>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
@@ -5832,13 +7500,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="81">
-        <v>168</v>
-      </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57">
+        <v>228</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -5853,13 +7521,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="75">
-        <v>169</v>
-      </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51">
+        <v>229</v>
+      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
@@ -5874,13 +7542,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="81">
-        <v>170</v>
-      </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57">
+        <v>230</v>
+      </c>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
@@ -5895,13 +7563,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="75">
-        <v>171</v>
-      </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51">
+        <v>231</v>
+      </c>
+      <c r="B61" s="47"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="40"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
@@ -5916,13 +7584,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="81">
-        <v>172</v>
-      </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57">
+        <v>232</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="40"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
@@ -5937,13 +7605,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="75">
-        <v>173</v>
-      </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51">
+        <v>233</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="40"/>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
@@ -5958,13 +7626,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="81">
-        <v>174</v>
-      </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57">
+        <v>234</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
@@ -5979,13 +7647,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="75">
-        <v>175</v>
-      </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51">
+        <v>235</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="40"/>
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
@@ -6000,13 +7668,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="81">
-        <v>176</v>
-      </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
+    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57">
+        <v>236</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
@@ -6021,13 +7689,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="75">
-        <v>177</v>
-      </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51">
+        <v>237</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
@@ -6042,13 +7710,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81">
-        <v>178</v>
-      </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
+    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="57">
+        <v>238</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
@@ -6063,13 +7731,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="75">
-        <v>179</v>
-      </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="51">
+        <v>239</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
@@ -6084,13 +7752,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="81">
-        <v>180</v>
-      </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74"/>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="57">
+        <v>240</v>
+      </c>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
@@ -6105,12 +7773,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="20"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -6122,7 +7790,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="22" t="s">
         <v>22</v>
       </c>
@@ -6131,38 +7799,33 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="52" t="s">
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -6176,8 +7839,13 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>

--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1C1AC-9FDF-433B-A79C-1F8DCD94DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59000105-A821-4773-80F8-831DA4FDA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
   </bookViews>
@@ -805,101 +805,101 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,38 +1647,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
@@ -1695,7 +1695,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="60"/>
@@ -1704,110 +1704,110 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="82" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="83"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -3082,11 +3082,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -3117,21 +3117,28 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="23"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -3147,13 +3154,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -3184,38 +3184,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
@@ -3232,7 +3232,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="24"/>
@@ -3241,110 +3241,110 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="82" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="83"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -4619,11 +4619,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -4654,28 +4654,21 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -4691,6 +4684,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -4721,38 +4721,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
@@ -4769,7 +4769,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="37"/>
@@ -4778,110 +4778,110 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="82" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="83"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -6156,11 +6156,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -6191,28 +6191,21 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -6228,6 +6221,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -6258,38 +6258,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
@@ -6306,7 +6306,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="38"/>
@@ -6315,110 +6315,110 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="82" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="83"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -7693,11 +7693,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -7728,28 +7728,24 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I74:L74"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A9:A10"/>
@@ -7762,9 +7758,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>

--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59000105-A821-4773-80F8-831DA4FDA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF47917-3563-43F5-8FB9-8D9EC3A48B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
   </bookViews>
@@ -945,7 +945,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -953,13 +953,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,21 +994,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect l="51" r="51"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7850797" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="7855127" y="44707"/>
+          <a:ext cx="452273" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,7 +1048,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1056,13 +1056,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1097,21 +1097,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect l="51" r="51"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7850797" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="7855127" y="44707"/>
+          <a:ext cx="452273" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,7 +1151,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1159,13 +1159,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,21 +1200,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect l="51" r="51"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7850797" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="7855127" y="44707"/>
+          <a:ext cx="452273" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,7 +1254,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1262,13 +1262,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,21 +1303,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect l="51" r="51"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7850797" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="7855127" y="44707"/>
+          <a:ext cx="452273" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,7 +1631,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
@@ -3168,7 +3168,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
@@ -4705,7 +4705,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
@@ -6242,7 +6242,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>

--- a/public/formato_bac.xlsx
+++ b/public/formato_bac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF47917-3563-43F5-8FB9-8D9EC3A48B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DC549-8417-4B2E-B3FE-5FB944C62305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F88D77E-4E3E-48C4-9DAA-2646452AF6C7}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -812,34 +812,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,24 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,55 +922,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7E0C4B-C76C-45A2-8175-65F109FFD03B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="121" b="121"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -995,7 +949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1017,30 +971,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>43295</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>44213</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="864892" cy="569664"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="9" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74147713-7244-42FE-BBC4-C66DCE8FA96D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5599E43-139B-4B7E-B6CB-BCF4B6B127EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,20 +993,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="121" b="121"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
+          <a:off x="43295" y="44213"/>
+          <a:ext cx="864892" cy="569664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,7 +1014,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1098,7 +1047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1120,30 +1069,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>43295</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>44213</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="864892" cy="569664"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="7" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621056C3-2329-4C04-9CE3-D8B61AF606E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836BC968-A74F-44D4-A0B6-7B082B56D432}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,20 +1091,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="121" b="121"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
+          <a:off x="43295" y="44213"/>
+          <a:ext cx="864892" cy="569664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,7 +1112,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1189,10 +1133,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808B9AE4-5D1F-45F2-A728-8218BD3B6594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCCE131-A391-4457-B4F9-0897FA828DFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1145,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1223,30 +1167,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>43295</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>44213</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="864891" cy="569664"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="7" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8E86A4-47C2-4962-9E2E-E00FAE916DCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440EDCD7-4807-4830-8A0F-4254DC675706}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,20 +1189,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="121" b="121"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
+          <a:off x="43295" y="44213"/>
+          <a:ext cx="864891" cy="569664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,7 +1210,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1292,10 +1231,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E6A9A6-BA69-4DD2-BC09-5E2BEEBFC363}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F7CE3A-3DD5-44CF-8A4E-7748D9EEEBBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1326,6 +1265,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43295</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864891" cy="569664"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DE9F6F-5179-4D70-BE48-5396E18FA6E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43295" y="44213"/>
+          <a:ext cx="864891" cy="569664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1647,20 +1630,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1669,10 +1652,10 @@
       <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62"/>
@@ -1681,21 +1664,21 @@
       <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="60"/>
@@ -1704,110 +1687,110 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="85" t="s">
+      <c r="K9" s="92"/>
+      <c r="L9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -3082,11 +3065,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -3117,28 +3100,21 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="23"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -3154,6 +3130,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -3184,20 +3167,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,10 +3189,10 @@
       <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62"/>
@@ -3218,133 +3201,133 @@
       <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="24"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="85" t="s">
+      <c r="K9" s="92"/>
+      <c r="L9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -4619,11 +4602,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -4654,21 +4637,28 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -4684,13 +4674,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -4721,20 +4704,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4743,10 +4726,10 @@
       <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62"/>
@@ -4755,133 +4738,133 @@
       <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="37"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="85" t="s">
+      <c r="K9" s="92"/>
+      <c r="L9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -6156,11 +6139,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -6191,21 +6174,28 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -6221,13 +6211,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -6258,20 +6241,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6280,10 +6263,10 @@
       <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62"/>
@@ -6292,133 +6275,133 @@
       <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="38"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="85" t="s">
+      <c r="K9" s="92"/>
+      <c r="L9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -7693,11 +7676,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -7728,21 +7711,28 @@
       <c r="A74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I74:L74"/>
@@ -7758,13 +7748,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
